--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2249579.403012263</v>
+        <v>2238853.99459846</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3406433.993942646</v>
+        <v>3406433.993942651</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2489722.599933123</v>
+        <v>2489722.599933122</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5096686531243394</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="H4" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>11.94294668035388</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -913,40 +913,40 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.5096686531243394</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.94294668035388</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="X7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,44 +1144,44 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.94294668035388</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I8" t="n">
+        <v>0.5096686531243394</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>293.0743675353021</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>281.0856844929839</v>
       </c>
       <c r="D11" t="n">
         <v>272.0669885375119</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>293.8091261074174</v>
       </c>
       <c r="F11" t="n">
         <v>312.9809421953946</v>
@@ -1390,7 +1390,7 @@
         <v>224.1852283033467</v>
       </c>
       <c r="I11" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.90637767767014</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>121.5478191836387</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>236.5807447754813</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>261.8808442534382</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>281.1811024861848</v>
+        <v>110.5159228350884</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.891545341460048</v>
+        <v>292.5777002823835</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C13" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D13" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E13" t="n">
-        <v>53.46018750875709</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F13" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G13" t="n">
-        <v>69.83919107073491</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H13" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888644</v>
       </c>
       <c r="I13" t="n">
-        <v>34.82720012183147</v>
+        <v>34.82720012183145</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S13" t="n">
         <v>108.2243899678459</v>
@@ -1593,7 +1593,7 @@
         <v>186.2661008802381</v>
       </c>
       <c r="X13" t="n">
-        <v>131.9112028760412</v>
+        <v>131.9112028760409</v>
       </c>
       <c r="Y13" t="n">
         <v>122.7860706321089</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.0743675353021</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>281.0856844929839</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>272.0669885375119</v>
       </c>
       <c r="E14" t="n">
-        <v>246.7771849745349</v>
+        <v>293.8091261074174</v>
       </c>
       <c r="F14" t="n">
-        <v>312.9809421953946</v>
+        <v>59.58014742093816</v>
       </c>
       <c r="G14" t="n">
-        <v>314.1058032315667</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>224.1852283033467</v>
       </c>
       <c r="I14" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>121.5478191836387</v>
       </c>
       <c r="U14" t="n">
-        <v>155.2430737867091</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>236.5807447754813</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C16" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D16" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E16" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F16" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G16" t="n">
         <v>69.83919107073491</v>
       </c>
       <c r="H16" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888642</v>
       </c>
       <c r="I16" t="n">
-        <v>34.82720012183096</v>
+        <v>34.82720012183147</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S16" t="n">
         <v>108.2243899678459</v>
@@ -1861,10 +1861,10 @@
         <v>314.1058032315667</v>
       </c>
       <c r="H17" t="n">
-        <v>110.2057110356632</v>
+        <v>224.1852283033467</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T17" t="n">
         <v>121.5478191836387</v>
       </c>
       <c r="U17" t="n">
-        <v>155.2430737867091</v>
+        <v>145.7434806866898</v>
       </c>
       <c r="V17" t="n">
-        <v>236.5807447754813</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>261.8808442534382</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>281.1811024861848</v>
       </c>
       <c r="Y17" t="n">
         <v>292.5777002823835</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C19" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D19" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E19" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F19" t="n">
-        <v>53.92711183694321</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G19" t="n">
         <v>69.83919107073491</v>
       </c>
       <c r="H19" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888642</v>
       </c>
       <c r="I19" t="n">
         <v>34.82720012183147</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S19" t="n">
-        <v>108.2243899678459</v>
+        <v>108.2243899678456</v>
       </c>
       <c r="T19" t="n">
         <v>132.2690357999259</v>
       </c>
       <c r="U19" t="n">
-        <v>187.2698210652967</v>
+        <v>187.2698210652972</v>
       </c>
       <c r="V19" t="n">
         <v>161.0992148096248</v>
@@ -2083,7 +2083,7 @@
         <v>293.0743675353021</v>
       </c>
       <c r="C20" t="n">
-        <v>54.30560485022949</v>
+        <v>281.0856844929839</v>
       </c>
       <c r="D20" t="n">
         <v>272.0669885375119</v>
@@ -2101,7 +2101,7 @@
         <v>224.1852283033467</v>
       </c>
       <c r="I20" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.90637767767015</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T20" t="n">
-        <v>121.5478191836387</v>
+        <v>112.0482260836196</v>
       </c>
       <c r="U20" t="n">
-        <v>155.2430737867091</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V20" t="n">
-        <v>236.5807447754813</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>261.8808442534382</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>281.1811024861848</v>
       </c>
       <c r="Y20" t="n">
         <v>292.5777002823835</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C22" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D22" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E22" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F22" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G22" t="n">
-        <v>69.83919107073491</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H22" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888644</v>
       </c>
       <c r="I22" t="n">
-        <v>34.82720012183147</v>
+        <v>34.82720012183145</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S22" t="n">
         <v>108.2243899678459</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.26263687074257</v>
+        <v>293.0743675353021</v>
       </c>
       <c r="C23" t="n">
         <v>281.0856844929839</v>
@@ -2338,7 +2338,7 @@
         <v>224.1852283033467</v>
       </c>
       <c r="I23" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>121.5478191836387</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>236.5807447754813</v>
+        <v>75.31683329456067</v>
       </c>
       <c r="W23" t="n">
         <v>261.8808442534382</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C25" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D25" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E25" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F25" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G25" t="n">
-        <v>69.83919107073493</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H25" t="n">
         <v>57.52612971888644</v>
       </c>
       <c r="I25" t="n">
-        <v>34.82720012183075</v>
+        <v>34.82720012183145</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S25" t="n">
         <v>108.2243899678459</v>
@@ -2532,7 +2532,7 @@
         <v>132.2690357999259</v>
       </c>
       <c r="U25" t="n">
-        <v>187.2698210652963</v>
+        <v>187.2698210652967</v>
       </c>
       <c r="V25" t="n">
         <v>161.0992148096248</v>
@@ -2557,13 +2557,13 @@
         <v>293.0743675353021</v>
       </c>
       <c r="C26" t="n">
-        <v>35.00534661748311</v>
+        <v>281.0856844929839</v>
       </c>
       <c r="D26" t="n">
         <v>272.0669885375119</v>
       </c>
       <c r="E26" t="n">
-        <v>293.8091261074174</v>
+        <v>10.03317228182495</v>
       </c>
       <c r="F26" t="n">
         <v>312.9809421953946</v>
@@ -2572,10 +2572,10 @@
         <v>314.1058032315667</v>
       </c>
       <c r="H26" t="n">
-        <v>224.1852283033467</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.90637767767015</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T26" t="n">
         <v>121.5478191836387</v>
       </c>
       <c r="U26" t="n">
-        <v>155.2430737867091</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V26" t="n">
         <v>236.5807447754813</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>261.8808442534382</v>
       </c>
       <c r="X26" t="n">
         <v>281.1811024861848</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C28" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D28" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E28" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F28" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G28" t="n">
-        <v>69.83919107073424</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H28" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888644</v>
       </c>
       <c r="I28" t="n">
-        <v>34.82720012183147</v>
+        <v>34.82720012183154</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S28" t="n">
         <v>108.2243899678459</v>
@@ -2794,7 +2794,7 @@
         <v>293.0743675353021</v>
       </c>
       <c r="C29" t="n">
-        <v>54.30560485022949</v>
+        <v>281.0856844929839</v>
       </c>
       <c r="D29" t="n">
         <v>272.0669885375119</v>
@@ -2809,10 +2809,10 @@
         <v>314.1058032315667</v>
       </c>
       <c r="H29" t="n">
-        <v>224.1852283033467</v>
+        <v>105.8155015198266</v>
       </c>
       <c r="I29" t="n">
-        <v>42.89418469740055</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.90637767767015</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>121.5478191836387</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>155.2430737867091</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>236.5807447754813</v>
@@ -2857,7 +2857,7 @@
         <v>261.8808442534382</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>281.1811024861848</v>
       </c>
       <c r="Y29" t="n">
         <v>292.5777002823835</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C31" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D31" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E31" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F31" t="n">
-        <v>53.92711183694321</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G31" t="n">
-        <v>69.83919107073491</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H31" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888644</v>
       </c>
       <c r="I31" t="n">
-        <v>34.82720012183147</v>
+        <v>34.82720012183145</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S31" t="n">
         <v>108.2243899678459</v>
@@ -3009,7 +3009,7 @@
         <v>187.2698210652967</v>
       </c>
       <c r="V31" t="n">
-        <v>161.0992148096248</v>
+        <v>161.099214809625</v>
       </c>
       <c r="W31" t="n">
         <v>186.2661008802381</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66.19886989934683</v>
+        <v>293.0743675353021</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>281.0856844929839</v>
       </c>
       <c r="D32" t="n">
         <v>272.0669885375119</v>
@@ -3040,16 +3040,16 @@
         <v>293.8091261074174</v>
       </c>
       <c r="F32" t="n">
-        <v>312.9809421953946</v>
+        <v>119.1255632980226</v>
       </c>
       <c r="G32" t="n">
-        <v>314.1058032315667</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>224.1852283033467</v>
       </c>
       <c r="I32" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.90637767767015</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T32" t="n">
         <v>121.5478191836387</v>
       </c>
       <c r="U32" t="n">
-        <v>155.2430737867091</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V32" t="n">
         <v>236.5807447754813</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C34" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D34" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E34" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F34" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G34" t="n">
-        <v>69.83919107073491</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H34" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888644</v>
       </c>
       <c r="I34" t="n">
-        <v>34.82720012183147</v>
+        <v>34.82720012183145</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.69295635281181</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S34" t="n">
         <v>108.2243899678459</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>293.0743675353021</v>
       </c>
       <c r="C35" t="n">
         <v>281.0856844929839</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0669885375119</v>
+        <v>213.4404861762995</v>
       </c>
       <c r="E35" t="n">
         <v>293.8091261074174</v>
@@ -3283,10 +3283,10 @@
         <v>314.1058032315667</v>
       </c>
       <c r="H35" t="n">
-        <v>224.1852283033467</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.89418469740055</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.90637767767015</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>121.5478191836387</v>
       </c>
       <c r="U35" t="n">
-        <v>155.2430737867091</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>21.69393018184443</v>
+        <v>236.5807447754813</v>
       </c>
       <c r="W35" t="n">
         <v>261.8808442534382</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C37" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D37" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E37" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F37" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G37" t="n">
-        <v>69.83919107073491</v>
+        <v>69.8391910707349</v>
       </c>
       <c r="H37" t="n">
-        <v>57.52612971888645</v>
+        <v>57.52612971888644</v>
       </c>
       <c r="I37" t="n">
-        <v>34.82720012183147</v>
+        <v>34.82720012183145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S37" t="n">
         <v>108.2243899678459</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>66.29428789254737</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>281.0856844929839</v>
@@ -3523,7 +3523,7 @@
         <v>224.1852283033467</v>
       </c>
       <c r="I38" t="n">
-        <v>42.89418469740055</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.90637767767015</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>121.5478191836387</v>
       </c>
       <c r="U38" t="n">
-        <v>155.2430737867091</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V38" t="n">
         <v>236.5807447754813</v>
@@ -3568,10 +3568,10 @@
         <v>261.8808442534382</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>281.1811024861848</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.5777002823835</v>
+        <v>190.4914480638172</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.69107840999922</v>
+        <v>84.69107840999921</v>
       </c>
       <c r="C40" t="n">
-        <v>70.8910732553997</v>
+        <v>70.89107325539969</v>
       </c>
       <c r="D40" t="n">
-        <v>54.51243765297809</v>
+        <v>54.51243765297808</v>
       </c>
       <c r="E40" t="n">
-        <v>53.46018750875754</v>
+        <v>53.46018750875753</v>
       </c>
       <c r="F40" t="n">
-        <v>53.92711183694385</v>
+        <v>53.92711183694384</v>
       </c>
       <c r="G40" t="n">
-        <v>69.83919107073493</v>
+        <v>69.83919107073491</v>
       </c>
       <c r="H40" t="n">
-        <v>57.52612971888644</v>
+        <v>57.52612971888642</v>
       </c>
       <c r="I40" t="n">
-        <v>34.82720012183146</v>
+        <v>34.82720012183147</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.6929563528125</v>
+        <v>34.69295635281249</v>
       </c>
       <c r="S40" t="n">
         <v>108.2243899678459</v>
@@ -3717,7 +3717,7 @@
         <v>132.2690357999259</v>
       </c>
       <c r="U40" t="n">
-        <v>187.2698210652963</v>
+        <v>187.2698210652968</v>
       </c>
       <c r="V40" t="n">
         <v>161.0992148096248</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -3748,16 +3748,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.1345398191035</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>49.04980045191139</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>38.95081614108712</v>
       </c>
       <c r="S41" t="n">
-        <v>166.9351142652069</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5765557711755</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2718103742459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>308.6831614562489</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.8679276582717</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>154.5548663064232</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.170431250857347</v>
       </c>
       <c r="J43" t="n">
-        <v>33.81918562970529</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.787195715707689</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>131.7216929403493</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.2977723874627</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>41.08173810318773</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>108.8886085004909</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.1345398191035</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>321.2139648908835</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S44" t="n">
-        <v>166.9351142652069</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.5765557711755</v>
       </c>
       <c r="U44" t="n">
         <v>252.2718103742459</v>
@@ -4039,13 +4039,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>101.6051920388798</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>53.82597015199114</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>154.5548663064232</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>131.7216929403493</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.2977723874627</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>25.31952937849545</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="E2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F2" t="n">
-        <v>13.53383506117399</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G2" t="n">
-        <v>1.470252555766027</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H2" t="n">
-        <v>1.470252555766027</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I2" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J2" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K2" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L2" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M2" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N2" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O2" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P2" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
@@ -4357,25 +4357,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
@@ -4412,22 +4412,22 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K3" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L3" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M3" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N3" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O3" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q3" t="n">
         <v>47.77178672141554</v>
@@ -4436,25 +4436,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X3" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F4" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="G4" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H4" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I4" t="n">
         <v>13.01901823983628</v>
@@ -4491,16 +4491,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K4" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L4" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M4" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O4" t="n">
         <v>47.77178672141554</v>
@@ -4509,31 +4509,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="C5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F5" t="n">
-        <v>25.59741756658196</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G5" t="n">
-        <v>13.53383506117399</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H5" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I5" t="n">
         <v>0.9554357344283108</v>
@@ -4570,49 +4570,49 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K5" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L5" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>24.60247016152901</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>24.60247016152901</v>
+      </c>
+      <c r="O5" t="n">
         <v>35.94826950786519</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W5" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.70820421600757</v>
+        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="E6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="F6" t="n">
-        <v>11.58103920519164</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="G6" t="n">
-        <v>11.58103920519164</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L6" t="n">
-        <v>12.77895294797866</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M6" t="n">
-        <v>12.77895294797866</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N6" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O6" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P6" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R6" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S6" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T6" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U6" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V6" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="7">
@@ -4731,46 +4731,46 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L7" t="n">
-        <v>24.60247016152901</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M7" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="N7" t="n">
+        <v>24.12475229431485</v>
+      </c>
+      <c r="O7" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="N7" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="O7" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U7" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V7" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W7" t="n">
-        <v>37.14618325065221</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X7" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F8" t="n">
-        <v>25.08260074524424</v>
+        <v>25.59741756658196</v>
       </c>
       <c r="G8" t="n">
-        <v>13.01901823983628</v>
+        <v>13.53383506117399</v>
       </c>
       <c r="H8" t="n">
-        <v>13.01901823983628</v>
+        <v>1.470252555766027</v>
       </c>
       <c r="I8" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L8" t="n">
         <v>24.12475229431485</v>
@@ -4816,40 +4816,40 @@
         <v>24.12475229431485</v>
       </c>
       <c r="N8" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O8" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G9" t="n">
         <v>0.9554357344283108</v>
@@ -4883,22 +4883,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L9" t="n">
-        <v>12.3012350807645</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M9" t="n">
-        <v>12.3012350807645</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N9" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
         <v>47.77178672141554</v>
@@ -4907,28 +4907,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T9" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U9" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V9" t="n">
-        <v>13.01901823983628</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="10">
@@ -4941,19 +4941,19 @@
         <v>23.64462171059961</v>
       </c>
       <c r="C10" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="D10" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="E10" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="F10" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="G10" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H10" t="n">
         <v>0.9554357344283108</v>
@@ -4965,16 +4965,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L10" t="n">
-        <v>24.60247016152901</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="M10" t="n">
-        <v>36.42598737507935</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O10" t="n">
         <v>47.77178672141554</v>
@@ -4986,28 +4986,28 @@
         <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.256445052859</v>
+        <v>1808.958273942153</v>
       </c>
       <c r="C11" t="n">
-        <v>1228.256445052859</v>
+        <v>1525.033340110857</v>
       </c>
       <c r="D11" t="n">
-        <v>953.4413051159785</v>
+        <v>1250.218200173976</v>
       </c>
       <c r="E11" t="n">
         <v>953.4413051159785</v>
@@ -5041,22 +5041,22 @@
         <v>50.24316529001023</v>
       </c>
       <c r="J11" t="n">
-        <v>50.24316529001023</v>
+        <v>190.1681061844633</v>
       </c>
       <c r="K11" t="n">
-        <v>362.3640680545312</v>
+        <v>532.1125386632541</v>
       </c>
       <c r="L11" t="n">
-        <v>836.5463802386763</v>
+        <v>1006.294850847399</v>
       </c>
       <c r="M11" t="n">
-        <v>1370.315226054537</v>
+        <v>1027.070911613669</v>
       </c>
       <c r="N11" t="n">
-        <v>1891.450181439607</v>
+        <v>1548.205866998739</v>
       </c>
       <c r="O11" t="n">
-        <v>2331.300152840503</v>
+        <v>1988.055838399635</v>
       </c>
       <c r="P11" t="n">
         <v>2331.300152840503</v>
@@ -5068,25 +5068,25 @@
         <v>2512.158264500511</v>
       </c>
       <c r="S11" t="n">
-        <v>2441.545761795794</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="T11" t="n">
-        <v>2318.770186862826</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="U11" t="n">
-        <v>2318.770186862826</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.799737594662</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="W11" t="n">
-        <v>1815.273632288159</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="X11" t="n">
-        <v>1531.252316645548</v>
+        <v>2400.526019212543</v>
       </c>
       <c r="Y11" t="n">
-        <v>1524.291159734983</v>
+        <v>2104.992988624277</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>199.3011695921259</v>
       </c>
       <c r="H12" t="n">
-        <v>103.5828932064119</v>
+        <v>103.5828932064118</v>
       </c>
       <c r="I12" t="n">
         <v>50.24316529001023</v>
@@ -5126,16 +5126,16 @@
         <v>449.5909571783436</v>
       </c>
       <c r="L12" t="n">
-        <v>908.3889343066892</v>
+        <v>822.5239807379236</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.921048411339</v>
+        <v>1416.056094842574</v>
       </c>
       <c r="N12" t="n">
-        <v>1805.643838261633</v>
+        <v>1421.778505124762</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.725947016456</v>
+        <v>1915.860613879585</v>
       </c>
       <c r="P12" t="n">
         <v>2299.725947016456</v>
@@ -5144,7 +5144,7 @@
         <v>2512.158264500511</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.500421386911</v>
+        <v>2479.500421386912</v>
       </c>
       <c r="S12" t="n">
         <v>2334.816250394764</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>449.2162270733755</v>
+        <v>449.2162270733759</v>
       </c>
       <c r="C13" t="n">
-        <v>377.6090823709515</v>
+        <v>377.6090823709519</v>
       </c>
       <c r="D13" t="n">
-        <v>322.54601403461</v>
+        <v>322.5460140346104</v>
       </c>
       <c r="E13" t="n">
         <v>268.545824631825</v>
@@ -5190,7 +5190,7 @@
         <v>214.0739944934979</v>
       </c>
       <c r="G13" t="n">
-        <v>143.5293570483112</v>
+        <v>143.5293570483111</v>
       </c>
       <c r="H13" t="n">
         <v>85.42215531206222</v>
@@ -5202,10 +5202,10 @@
         <v>112.8206207382634</v>
       </c>
       <c r="K13" t="n">
-        <v>284.192211243348</v>
+        <v>284.1922112433481</v>
       </c>
       <c r="L13" t="n">
-        <v>534.2308405047999</v>
+        <v>534.2308405048</v>
       </c>
       <c r="M13" t="n">
         <v>804.5572470175357</v>
@@ -5241,10 +5241,10 @@
         <v>792.0327441624153</v>
       </c>
       <c r="X13" t="n">
-        <v>658.7891048936867</v>
+        <v>658.7891048936871</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.7627709218596</v>
+        <v>534.7627709218599</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>976.261463369704</v>
+        <v>1235.719286057282</v>
       </c>
       <c r="C14" t="n">
-        <v>976.261463369704</v>
+        <v>951.7943522259848</v>
       </c>
       <c r="D14" t="n">
-        <v>976.261463369704</v>
+        <v>676.979212289104</v>
       </c>
       <c r="E14" t="n">
-        <v>726.9915795570424</v>
+        <v>380.2023172311066</v>
       </c>
       <c r="F14" t="n">
-        <v>410.8492137031085</v>
+        <v>320.0203501392499</v>
       </c>
       <c r="G14" t="n">
-        <v>93.57062458031382</v>
+        <v>320.0203501392499</v>
       </c>
       <c r="H14" t="n">
-        <v>93.57062458031382</v>
+        <v>93.57062458031379</v>
       </c>
       <c r="I14" t="n">
-        <v>50.24316529001023</v>
+        <v>50.24316529001022</v>
       </c>
       <c r="J14" t="n">
         <v>190.1681061844633</v>
@@ -5284,16 +5284,16 @@
         <v>532.1125386632541</v>
       </c>
       <c r="L14" t="n">
-        <v>1006.294850847399</v>
+        <v>532.1125386632541</v>
       </c>
       <c r="M14" t="n">
-        <v>1027.070911613669</v>
+        <v>1027.070911613668</v>
       </c>
       <c r="N14" t="n">
         <v>1548.205866998739</v>
       </c>
       <c r="O14" t="n">
-        <v>1988.055838399635</v>
+        <v>1988.055838399634</v>
       </c>
       <c r="P14" t="n">
         <v>2331.300152840503</v>
@@ -5305,25 +5305,25 @@
         <v>2512.158264500511</v>
       </c>
       <c r="S14" t="n">
-        <v>2512.158264500511</v>
+        <v>2441.545761795794</v>
       </c>
       <c r="T14" t="n">
-        <v>2512.158264500511</v>
+        <v>2318.770186862825</v>
       </c>
       <c r="U14" t="n">
-        <v>2355.347078857371</v>
+        <v>2318.770186862825</v>
       </c>
       <c r="V14" t="n">
-        <v>2116.376629589208</v>
+        <v>2079.799737594662</v>
       </c>
       <c r="W14" t="n">
-        <v>1851.850524282705</v>
+        <v>1815.273632288159</v>
       </c>
       <c r="X14" t="n">
-        <v>1567.829208640094</v>
+        <v>1531.252316645548</v>
       </c>
       <c r="Y14" t="n">
-        <v>1272.296178051827</v>
+        <v>1235.719286057282</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>909.8568824792436</v>
+        <v>909.8568824792434</v>
       </c>
       <c r="C15" t="n">
-        <v>748.1532097201983</v>
+        <v>748.1532097201981</v>
       </c>
       <c r="D15" t="n">
-        <v>609.3145727104104</v>
+        <v>609.3145727104102</v>
       </c>
       <c r="E15" t="n">
-        <v>462.2865627672816</v>
+        <v>462.2865627672815</v>
       </c>
       <c r="F15" t="n">
-        <v>327.5927647171559</v>
+        <v>327.5927647171558</v>
       </c>
       <c r="G15" t="n">
         <v>199.3011695921253</v>
@@ -5354,19 +5354,19 @@
         <v>103.5828932064118</v>
       </c>
       <c r="I15" t="n">
-        <v>50.24316529001023</v>
+        <v>50.24316529001022</v>
       </c>
       <c r="J15" t="n">
-        <v>150.953808308567</v>
+        <v>50.24316529001022</v>
       </c>
       <c r="K15" t="n">
-        <v>449.5909571783436</v>
+        <v>50.24316529001022</v>
       </c>
       <c r="L15" t="n">
-        <v>908.3889343066892</v>
+        <v>509.0411424183558</v>
       </c>
       <c r="M15" t="n">
-        <v>908.3889343066892</v>
+        <v>1102.573256523006</v>
       </c>
       <c r="N15" t="n">
         <v>1421.778505124761</v>
@@ -5399,10 +5399,10 @@
         <v>1459.714639733131</v>
       </c>
       <c r="X15" t="n">
-        <v>1261.797651610926</v>
+        <v>1261.797651610925</v>
       </c>
       <c r="Y15" t="n">
-        <v>1069.276325260505</v>
+        <v>1069.276325260504</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>449.2162270733755</v>
+        <v>449.2162270733756</v>
       </c>
       <c r="C16" t="n">
-        <v>377.6090823709515</v>
+        <v>377.6090823709518</v>
       </c>
       <c r="D16" t="n">
-        <v>322.54601403461</v>
+        <v>322.5460140346103</v>
       </c>
       <c r="E16" t="n">
-        <v>268.5458246318246</v>
+        <v>268.5458246318249</v>
       </c>
       <c r="F16" t="n">
-        <v>214.0739944934975</v>
+        <v>214.0739944934977</v>
       </c>
       <c r="G16" t="n">
-        <v>143.5293570483107</v>
+        <v>143.5293570483111</v>
       </c>
       <c r="H16" t="n">
-        <v>85.4221553120617</v>
+        <v>85.42215531206222</v>
       </c>
       <c r="I16" t="n">
-        <v>50.24316529001023</v>
+        <v>50.24316529001022</v>
       </c>
       <c r="J16" t="n">
         <v>112.8206207382634</v>
       </c>
       <c r="K16" t="n">
-        <v>284.192211243348</v>
+        <v>284.1922112433481</v>
       </c>
       <c r="L16" t="n">
-        <v>534.2308405047999</v>
+        <v>534.2308405048</v>
       </c>
       <c r="M16" t="n">
-        <v>804.5572470175357</v>
+        <v>804.5572470175355</v>
       </c>
       <c r="N16" t="n">
-        <v>1073.974408483186</v>
+        <v>1073.974408483185</v>
       </c>
       <c r="O16" t="n">
         <v>1319.239134061331</v>
@@ -5478,10 +5478,10 @@
         <v>792.0327441624153</v>
       </c>
       <c r="X16" t="n">
-        <v>658.7891048936867</v>
+        <v>658.7891048936868</v>
       </c>
       <c r="Y16" t="n">
-        <v>534.7627709218596</v>
+        <v>534.7627709218597</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1660.969229640153</v>
+        <v>1819.42751445337</v>
       </c>
       <c r="C17" t="n">
-        <v>1377.044295808857</v>
+        <v>1535.502580622073</v>
       </c>
       <c r="D17" t="n">
-        <v>1102.229155871976</v>
+        <v>1260.687440685192</v>
       </c>
       <c r="E17" t="n">
-        <v>805.4522608139785</v>
+        <v>963.9105456271947</v>
       </c>
       <c r="F17" t="n">
-        <v>489.3098949600445</v>
+        <v>647.7681797732607</v>
       </c>
       <c r="G17" t="n">
-        <v>172.0313058372498</v>
+        <v>330.4895906504661</v>
       </c>
       <c r="H17" t="n">
-        <v>60.71240580122637</v>
+        <v>104.0398650915299</v>
       </c>
       <c r="I17" t="n">
         <v>60.71240580122637</v>
@@ -5542,25 +5542,25 @@
         <v>3035.620290061318</v>
       </c>
       <c r="S17" t="n">
-        <v>3035.620290061318</v>
+        <v>2965.007787356601</v>
       </c>
       <c r="T17" t="n">
-        <v>2912.84471512835</v>
+        <v>2842.232212423633</v>
       </c>
       <c r="U17" t="n">
-        <v>2756.033529485209</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="V17" t="n">
-        <v>2517.063080217046</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="W17" t="n">
-        <v>2252.536974910543</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="X17" t="n">
-        <v>2252.536974910543</v>
+        <v>2410.995259723759</v>
       </c>
       <c r="Y17" t="n">
-        <v>1957.003944322277</v>
+        <v>2115.462229135493</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>60.71240580122637</v>
       </c>
       <c r="J18" t="n">
-        <v>161.4230488197831</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="K18" t="n">
-        <v>161.4230488197831</v>
+        <v>359.349554671003</v>
       </c>
       <c r="L18" t="n">
-        <v>620.2210259481287</v>
+        <v>818.1475317993486</v>
       </c>
       <c r="M18" t="n">
-        <v>1213.753140052779</v>
+        <v>1411.679645903999</v>
       </c>
       <c r="N18" t="n">
-        <v>1644.680063120033</v>
+        <v>1432.247745635977</v>
       </c>
       <c r="O18" t="n">
-        <v>2138.762171874855</v>
+        <v>1926.329854390799</v>
       </c>
       <c r="P18" t="n">
-        <v>2522.627505011726</v>
+        <v>2310.19518752767</v>
       </c>
       <c r="Q18" t="n">
         <v>2522.627505011726</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>459.6854675845914</v>
+        <v>459.6854675845919</v>
       </c>
       <c r="C19" t="n">
-        <v>388.0783228821675</v>
+        <v>388.078322882168</v>
       </c>
       <c r="D19" t="n">
-        <v>333.0152545458259</v>
+        <v>333.0152545458266</v>
       </c>
       <c r="E19" t="n">
-        <v>279.0150651430405</v>
+        <v>279.0150651430412</v>
       </c>
       <c r="F19" t="n">
         <v>224.5432350047141</v>
@@ -5679,10 +5679,10 @@
         <v>294.6614517545642</v>
       </c>
       <c r="L19" t="n">
-        <v>544.7000810160159</v>
+        <v>544.700081016016</v>
       </c>
       <c r="M19" t="n">
-        <v>815.0264875287517</v>
+        <v>815.026487528752</v>
       </c>
       <c r="N19" t="n">
         <v>1084.443648994402</v>
@@ -5691,7 +5691,7 @@
         <v>1329.708374572547</v>
       </c>
       <c r="P19" t="n">
-        <v>1532.154393428443</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q19" t="n">
         <v>1620.503518891554</v>
@@ -5700,7 +5700,7 @@
         <v>1585.460128636188</v>
       </c>
       <c r="S19" t="n">
-        <v>1476.142563012101</v>
+        <v>1476.142563012102</v>
       </c>
       <c r="T19" t="n">
         <v>1342.53747634551</v>
@@ -5709,16 +5709,16 @@
         <v>1153.376040926018</v>
       </c>
       <c r="V19" t="n">
-        <v>990.6495613203364</v>
+        <v>990.6495613203365</v>
       </c>
       <c r="W19" t="n">
-        <v>802.5019846736312</v>
+        <v>802.5019846736315</v>
       </c>
       <c r="X19" t="n">
-        <v>669.2583454049027</v>
+        <v>669.258345404903</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.2320114330755</v>
+        <v>545.232011433076</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.356726935436</v>
+        <v>1819.42751445337</v>
       </c>
       <c r="C20" t="n">
         <v>1535.502580622073</v>
@@ -5746,7 +5746,7 @@
         <v>330.4895906504661</v>
       </c>
       <c r="H20" t="n">
-        <v>104.03986509153</v>
+        <v>104.0398650915299</v>
       </c>
       <c r="I20" t="n">
         <v>60.71240580122637</v>
@@ -5782,22 +5782,22 @@
         <v>2965.007787356601</v>
       </c>
       <c r="T20" t="n">
-        <v>2842.232212423633</v>
+        <v>2851.827761009511</v>
       </c>
       <c r="U20" t="n">
-        <v>2685.421026780492</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="V20" t="n">
-        <v>2446.450577512329</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="W20" t="n">
-        <v>2181.924472205826</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="X20" t="n">
-        <v>2181.924472205826</v>
+        <v>2410.995259723759</v>
       </c>
       <c r="Y20" t="n">
-        <v>1886.391441617559</v>
+        <v>2115.462229135493</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>161.4230488197831</v>
       </c>
       <c r="K21" t="n">
-        <v>161.4230488197831</v>
+        <v>460.0601976895597</v>
       </c>
       <c r="L21" t="n">
-        <v>216.0795854689848</v>
+        <v>918.8581748179054</v>
       </c>
       <c r="M21" t="n">
-        <v>809.6116995736348</v>
+        <v>1022.044017057691</v>
       </c>
       <c r="N21" t="n">
-        <v>1432.247745635977</v>
+        <v>1644.680063120033</v>
       </c>
       <c r="O21" t="n">
-        <v>1926.329854390799</v>
+        <v>2138.762171874855</v>
       </c>
       <c r="P21" t="n">
-        <v>2310.19518752767</v>
+        <v>2522.627505011726</v>
       </c>
       <c r="Q21" t="n">
         <v>2522.627505011726</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1874.802238754355</v>
+        <v>459.6854675845919</v>
       </c>
       <c r="C22" t="n">
-        <v>1803.195094051931</v>
+        <v>388.078322882168</v>
       </c>
       <c r="D22" t="n">
-        <v>1748.132025715589</v>
+        <v>333.0152545458266</v>
       </c>
       <c r="E22" t="n">
-        <v>1694.131836312804</v>
+        <v>279.0150651430412</v>
       </c>
       <c r="F22" t="n">
-        <v>1639.660006174477</v>
+        <v>224.543235004714</v>
       </c>
       <c r="G22" t="n">
-        <v>1569.11536872929</v>
+        <v>153.9985975595273</v>
       </c>
       <c r="H22" t="n">
-        <v>1511.008166993041</v>
+        <v>95.89139582327834</v>
       </c>
       <c r="I22" t="n">
-        <v>1475.829176970989</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="J22" t="n">
-        <v>1538.406632419242</v>
+        <v>123.2898612494796</v>
       </c>
       <c r="K22" t="n">
-        <v>1709.778222924327</v>
+        <v>294.6614517545642</v>
       </c>
       <c r="L22" t="n">
-        <v>1959.816852185779</v>
+        <v>544.700081016016</v>
       </c>
       <c r="M22" t="n">
-        <v>2230.143258698515</v>
+        <v>815.0264875287519</v>
       </c>
       <c r="N22" t="n">
-        <v>2499.560420164165</v>
+        <v>1084.443648994402</v>
       </c>
       <c r="O22" t="n">
-        <v>2744.825145742311</v>
+        <v>1329.708374572547</v>
       </c>
       <c r="P22" t="n">
-        <v>2947.271164598208</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q22" t="n">
-        <v>3035.620290061318</v>
+        <v>1620.503518891554</v>
       </c>
       <c r="R22" t="n">
-        <v>3000.576899805952</v>
+        <v>1585.460128636188</v>
       </c>
       <c r="S22" t="n">
-        <v>2891.259334181865</v>
+        <v>1476.142563012102</v>
       </c>
       <c r="T22" t="n">
-        <v>2757.654247515273</v>
+        <v>1342.53747634551</v>
       </c>
       <c r="U22" t="n">
-        <v>2568.492812095782</v>
+        <v>1153.376040926018</v>
       </c>
       <c r="V22" t="n">
-        <v>2405.7663324901</v>
+        <v>990.6495613203367</v>
       </c>
       <c r="W22" t="n">
-        <v>2217.618755843395</v>
+        <v>802.5019846736316</v>
       </c>
       <c r="X22" t="n">
-        <v>2084.375116574666</v>
+        <v>669.2583454049031</v>
       </c>
       <c r="Y22" t="n">
-        <v>1960.348782602839</v>
+        <v>545.232011433076</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>330.4895906504661</v>
       </c>
       <c r="H23" t="n">
-        <v>104.03986509153</v>
+        <v>104.0398650915299</v>
       </c>
       <c r="I23" t="n">
         <v>60.71240580122637</v>
       </c>
       <c r="J23" t="n">
-        <v>200.6373466956793</v>
+        <v>200.6373466956795</v>
       </c>
       <c r="K23" t="n">
         <v>542.5817791744703</v>
@@ -6019,22 +6019,22 @@
         <v>3035.620290061318</v>
       </c>
       <c r="T23" t="n">
-        <v>2912.84471512835</v>
+        <v>3035.620290061318</v>
       </c>
       <c r="U23" t="n">
-        <v>2912.84471512835</v>
+        <v>3035.620290061318</v>
       </c>
       <c r="V23" t="n">
-        <v>2673.874265860187</v>
+        <v>2959.542680672873</v>
       </c>
       <c r="W23" t="n">
-        <v>2409.348160553684</v>
+        <v>2695.01657536637</v>
       </c>
       <c r="X23" t="n">
-        <v>2125.326844911073</v>
+        <v>2410.995259723759</v>
       </c>
       <c r="Y23" t="n">
-        <v>1829.793814322807</v>
+        <v>2115.462229135493</v>
       </c>
     </row>
     <row r="24">
@@ -6080,7 +6080,7 @@
         <v>1512.390288922556</v>
       </c>
       <c r="N24" t="n">
-        <v>2135.026334984897</v>
+        <v>1644.680063120033</v>
       </c>
       <c r="O24" t="n">
         <v>2138.762171874855</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1874.802238754356</v>
+        <v>459.6854675845919</v>
       </c>
       <c r="C25" t="n">
-        <v>1803.195094051932</v>
+        <v>388.078322882168</v>
       </c>
       <c r="D25" t="n">
-        <v>1748.13202571559</v>
+        <v>333.0152545458266</v>
       </c>
       <c r="E25" t="n">
-        <v>1694.131836312805</v>
+        <v>279.0150651430412</v>
       </c>
       <c r="F25" t="n">
-        <v>1639.660006174478</v>
+        <v>224.543235004714</v>
       </c>
       <c r="G25" t="n">
-        <v>1569.115368729291</v>
+        <v>153.9985975595273</v>
       </c>
       <c r="H25" t="n">
-        <v>1511.008166993042</v>
+        <v>95.89139582327834</v>
       </c>
       <c r="I25" t="n">
-        <v>1475.82917697099</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="J25" t="n">
-        <v>1538.406632419243</v>
+        <v>123.2898612494796</v>
       </c>
       <c r="K25" t="n">
-        <v>1709.778222924328</v>
+        <v>294.6614517545643</v>
       </c>
       <c r="L25" t="n">
-        <v>1959.81685218578</v>
+        <v>544.7000810160162</v>
       </c>
       <c r="M25" t="n">
-        <v>2230.143258698516</v>
+        <v>815.0264875287519</v>
       </c>
       <c r="N25" t="n">
-        <v>2499.560420164165</v>
+        <v>1084.443648994402</v>
       </c>
       <c r="O25" t="n">
-        <v>2744.825145742311</v>
+        <v>1329.708374572547</v>
       </c>
       <c r="P25" t="n">
-        <v>2947.271164598208</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q25" t="n">
-        <v>3035.620290061318</v>
+        <v>1620.503518891554</v>
       </c>
       <c r="R25" t="n">
-        <v>3000.576899805952</v>
+        <v>1585.460128636188</v>
       </c>
       <c r="S25" t="n">
-        <v>2891.259334181865</v>
+        <v>1476.142563012102</v>
       </c>
       <c r="T25" t="n">
-        <v>2757.654247515273</v>
+        <v>1342.53747634551</v>
       </c>
       <c r="U25" t="n">
-        <v>2568.492812095782</v>
+        <v>1153.376040926018</v>
       </c>
       <c r="V25" t="n">
-        <v>2405.7663324901</v>
+        <v>990.6495613203367</v>
       </c>
       <c r="W25" t="n">
-        <v>2217.618755843395</v>
+        <v>802.5019846736316</v>
       </c>
       <c r="X25" t="n">
-        <v>2084.375116574667</v>
+        <v>669.2583454049031</v>
       </c>
       <c r="Y25" t="n">
-        <v>1960.34878260284</v>
+        <v>545.232011433076</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1570.861516599329</v>
+        <v>1306.335411292825</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.502580622073</v>
+        <v>1022.410477461528</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.687440685192</v>
+        <v>747.5953375246474</v>
       </c>
       <c r="E26" t="n">
-        <v>963.9105456271947</v>
+        <v>737.4608200682586</v>
       </c>
       <c r="F26" t="n">
-        <v>647.7681797732607</v>
+        <v>421.3184542143247</v>
       </c>
       <c r="G26" t="n">
-        <v>330.4895906504661</v>
+        <v>104.0398650915299</v>
       </c>
       <c r="H26" t="n">
-        <v>104.03986509153</v>
+        <v>104.0398650915299</v>
       </c>
       <c r="I26" t="n">
         <v>60.71240580122637</v>
       </c>
       <c r="J26" t="n">
-        <v>200.6373466956793</v>
+        <v>200.6373466956795</v>
       </c>
       <c r="K26" t="n">
         <v>542.5817791744703</v>
@@ -6265,13 +6265,13 @@
         <v>2446.450577512329</v>
       </c>
       <c r="W26" t="n">
-        <v>2446.450577512329</v>
+        <v>2181.924472205826</v>
       </c>
       <c r="X26" t="n">
-        <v>2162.429261869718</v>
+        <v>1897.903156563215</v>
       </c>
       <c r="Y26" t="n">
-        <v>1866.896231281452</v>
+        <v>1602.370125974948</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>1411.679645903999</v>
       </c>
       <c r="N27" t="n">
-        <v>2034.315691966341</v>
+        <v>1432.247745635977</v>
       </c>
       <c r="O27" t="n">
-        <v>2138.762171874855</v>
+        <v>1926.329854390799</v>
       </c>
       <c r="P27" t="n">
-        <v>2522.627505011726</v>
+        <v>2310.19518752767</v>
       </c>
       <c r="Q27" t="n">
         <v>2522.627505011726</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>459.6854675845914</v>
+        <v>459.6854675845921</v>
       </c>
       <c r="C28" t="n">
-        <v>388.0783228821675</v>
+        <v>388.0783228821681</v>
       </c>
       <c r="D28" t="n">
-        <v>333.0152545458259</v>
+        <v>333.0152545458266</v>
       </c>
       <c r="E28" t="n">
-        <v>279.0150651430405</v>
+        <v>279.0150651430412</v>
       </c>
       <c r="F28" t="n">
-        <v>224.5432350047134</v>
+        <v>224.5432350047141</v>
       </c>
       <c r="G28" t="n">
-        <v>153.9985975595273</v>
+        <v>153.9985975595274</v>
       </c>
       <c r="H28" t="n">
-        <v>95.89139582327836</v>
+        <v>95.89139582327843</v>
       </c>
       <c r="I28" t="n">
         <v>60.71240580122637</v>
@@ -6390,10 +6390,10 @@
         <v>294.6614517545642</v>
       </c>
       <c r="L28" t="n">
-        <v>544.7000810160159</v>
+        <v>544.700081016016</v>
       </c>
       <c r="M28" t="n">
-        <v>815.0264875287517</v>
+        <v>815.0264875287519</v>
       </c>
       <c r="N28" t="n">
         <v>1084.443648994402</v>
@@ -6402,34 +6402,34 @@
         <v>1329.708374572547</v>
       </c>
       <c r="P28" t="n">
-        <v>1532.154393428443</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q28" t="n">
-        <v>1620.503518891554</v>
+        <v>1620.503518891555</v>
       </c>
       <c r="R28" t="n">
-        <v>1585.460128636188</v>
+        <v>1585.460128636189</v>
       </c>
       <c r="S28" t="n">
-        <v>1476.142563012101</v>
+        <v>1476.142563012102</v>
       </c>
       <c r="T28" t="n">
         <v>1342.53747634551</v>
       </c>
       <c r="U28" t="n">
-        <v>1153.376040926018</v>
+        <v>1153.376040926019</v>
       </c>
       <c r="V28" t="n">
-        <v>990.6495613203364</v>
+        <v>990.6495613203368</v>
       </c>
       <c r="W28" t="n">
-        <v>802.5019846736312</v>
+        <v>802.5019846736317</v>
       </c>
       <c r="X28" t="n">
-        <v>669.2583454049027</v>
+        <v>669.2583454049033</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.2320114330755</v>
+        <v>545.2320114330761</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.356726935436</v>
+        <v>1656.534674573652</v>
       </c>
       <c r="C29" t="n">
-        <v>1535.502580622073</v>
+        <v>1372.609740742355</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.687440685192</v>
+        <v>1097.794600805474</v>
       </c>
       <c r="E29" t="n">
-        <v>963.9105456271947</v>
+        <v>801.0177057474768</v>
       </c>
       <c r="F29" t="n">
-        <v>647.7681797732607</v>
+        <v>484.8753398935429</v>
       </c>
       <c r="G29" t="n">
-        <v>330.4895906504661</v>
+        <v>167.5967507707482</v>
       </c>
       <c r="H29" t="n">
-        <v>104.03986509153</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="I29" t="n">
         <v>60.71240580122637</v>
@@ -6490,25 +6490,25 @@
         <v>3035.620290061318</v>
       </c>
       <c r="S29" t="n">
-        <v>2965.007787356601</v>
+        <v>3035.620290061318</v>
       </c>
       <c r="T29" t="n">
-        <v>2842.232212423633</v>
+        <v>3035.620290061318</v>
       </c>
       <c r="U29" t="n">
-        <v>2685.421026780492</v>
+        <v>3035.620290061318</v>
       </c>
       <c r="V29" t="n">
-        <v>2446.450577512329</v>
+        <v>2796.649840793155</v>
       </c>
       <c r="W29" t="n">
-        <v>2181.924472205826</v>
+        <v>2532.123735486652</v>
       </c>
       <c r="X29" t="n">
-        <v>2181.924472205826</v>
+        <v>2248.102419844041</v>
       </c>
       <c r="Y29" t="n">
-        <v>1886.391441617559</v>
+        <v>1952.569389255775</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>60.71240580122637</v>
       </c>
       <c r="J30" t="n">
-        <v>161.4230488197831</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="K30" t="n">
-        <v>161.4230488197831</v>
+        <v>359.349554671003</v>
       </c>
       <c r="L30" t="n">
-        <v>620.2210259481287</v>
+        <v>818.1475317993486</v>
       </c>
       <c r="M30" t="n">
-        <v>1193.477032710506</v>
+        <v>1411.679645903999</v>
       </c>
       <c r="N30" t="n">
-        <v>1816.113078772848</v>
+        <v>1432.247745635977</v>
       </c>
       <c r="O30" t="n">
-        <v>2310.19518752767</v>
+        <v>1926.329854390799</v>
       </c>
       <c r="P30" t="n">
         <v>2310.19518752767</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>459.6854675845914</v>
+        <v>459.6854675845919</v>
       </c>
       <c r="C31" t="n">
-        <v>388.0783228821675</v>
+        <v>388.078322882168</v>
       </c>
       <c r="D31" t="n">
-        <v>333.0152545458259</v>
+        <v>333.0152545458266</v>
       </c>
       <c r="E31" t="n">
-        <v>279.0150651430405</v>
+        <v>279.0150651430412</v>
       </c>
       <c r="F31" t="n">
-        <v>224.5432350047141</v>
+        <v>224.543235004714</v>
       </c>
       <c r="G31" t="n">
         <v>153.9985975595273</v>
       </c>
       <c r="H31" t="n">
-        <v>95.89139582327836</v>
+        <v>95.89139582327834</v>
       </c>
       <c r="I31" t="n">
         <v>60.71240580122637</v>
@@ -6627,10 +6627,10 @@
         <v>294.6614517545642</v>
       </c>
       <c r="L31" t="n">
-        <v>544.7000810160159</v>
+        <v>544.700081016016</v>
       </c>
       <c r="M31" t="n">
-        <v>815.0264875287517</v>
+        <v>815.0264875287519</v>
       </c>
       <c r="N31" t="n">
         <v>1084.443648994402</v>
@@ -6639,34 +6639,34 @@
         <v>1329.708374572547</v>
       </c>
       <c r="P31" t="n">
-        <v>1532.154393428443</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q31" t="n">
-        <v>1620.503518891554</v>
+        <v>1620.503518891555</v>
       </c>
       <c r="R31" t="n">
-        <v>1585.460128636188</v>
+        <v>1585.460128636189</v>
       </c>
       <c r="S31" t="n">
-        <v>1476.142563012101</v>
+        <v>1476.142563012102</v>
       </c>
       <c r="T31" t="n">
         <v>1342.53747634551</v>
       </c>
       <c r="U31" t="n">
-        <v>1153.376040926018</v>
+        <v>1153.376040926019</v>
       </c>
       <c r="V31" t="n">
-        <v>990.6495613203364</v>
+        <v>990.6495613203367</v>
       </c>
       <c r="W31" t="n">
-        <v>802.5019846736312</v>
+        <v>802.5019846736316</v>
       </c>
       <c r="X31" t="n">
-        <v>669.2583454049027</v>
+        <v>669.2583454049031</v>
       </c>
       <c r="Y31" t="n">
-        <v>545.2320114330755</v>
+        <v>545.232011433076</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1535.502580622073</v>
+        <v>1306.335411292825</v>
       </c>
       <c r="C32" t="n">
-        <v>1535.502580622073</v>
+        <v>1022.410477461529</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.687440685192</v>
+        <v>747.5953375246479</v>
       </c>
       <c r="E32" t="n">
-        <v>963.9105456271947</v>
+        <v>450.8184424666505</v>
       </c>
       <c r="F32" t="n">
-        <v>647.7681797732607</v>
+        <v>330.4895906504661</v>
       </c>
       <c r="G32" t="n">
         <v>330.4895906504661</v>
@@ -6697,13 +6697,13 @@
         <v>104.03986509153</v>
       </c>
       <c r="I32" t="n">
-        <v>60.71240580122637</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="J32" t="n">
-        <v>200.6373466956793</v>
+        <v>200.6373466956798</v>
       </c>
       <c r="K32" t="n">
-        <v>542.5817791744701</v>
+        <v>542.5817791744703</v>
       </c>
       <c r="L32" t="n">
         <v>1016.764091358615</v>
@@ -6721,13 +6721,13 @@
         <v>2854.76217840131</v>
       </c>
       <c r="Q32" t="n">
-        <v>3035.620290061318</v>
+        <v>3035.620290061319</v>
       </c>
       <c r="R32" t="n">
-        <v>3035.620290061318</v>
+        <v>3035.620290061319</v>
       </c>
       <c r="S32" t="n">
-        <v>2965.007787356601</v>
+        <v>2965.007787356602</v>
       </c>
       <c r="T32" t="n">
         <v>2842.232212423633</v>
@@ -6745,7 +6745,7 @@
         <v>1897.903156563215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1602.370125974948</v>
+        <v>1602.370125974949</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1433.318908040052</v>
+        <v>920.3261229904596</v>
       </c>
       <c r="C33" t="n">
-        <v>1271.615235281007</v>
+        <v>758.6224502314143</v>
       </c>
       <c r="D33" t="n">
-        <v>1132.776598271219</v>
+        <v>619.7838132216264</v>
       </c>
       <c r="E33" t="n">
-        <v>985.7485883280897</v>
+        <v>472.7558032784976</v>
       </c>
       <c r="F33" t="n">
-        <v>851.054790277964</v>
+        <v>338.062005228372</v>
       </c>
       <c r="G33" t="n">
-        <v>722.7631951529335</v>
+        <v>209.7704101033415</v>
       </c>
       <c r="H33" t="n">
-        <v>627.04491876722</v>
+        <v>114.052133717628</v>
       </c>
       <c r="I33" t="n">
-        <v>573.7051908508184</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="J33" t="n">
-        <v>573.7051908508184</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="K33" t="n">
-        <v>573.7051908508184</v>
+        <v>359.349554671003</v>
       </c>
       <c r="L33" t="n">
-        <v>1032.503167979164</v>
+        <v>818.1475317993486</v>
       </c>
       <c r="M33" t="n">
-        <v>1535.036802107283</v>
+        <v>1411.679645903999</v>
       </c>
       <c r="N33" t="n">
-        <v>2157.672848169625</v>
+        <v>1432.247745635977</v>
       </c>
       <c r="O33" t="n">
-        <v>2651.754956924447</v>
+        <v>1926.329854390799</v>
       </c>
       <c r="P33" t="n">
-        <v>3035.620290061318</v>
+        <v>2310.19518752767</v>
       </c>
       <c r="Q33" t="n">
-        <v>3035.620290061318</v>
+        <v>2522.627505011726</v>
       </c>
       <c r="R33" t="n">
-        <v>3002.962446947718</v>
+        <v>2489.969661898126</v>
       </c>
       <c r="S33" t="n">
-        <v>2858.278275955571</v>
+        <v>2345.285490905979</v>
       </c>
       <c r="T33" t="n">
-        <v>2671.354205273743</v>
+        <v>2158.36142022415</v>
       </c>
       <c r="U33" t="n">
-        <v>2452.888156612295</v>
+        <v>1939.895371562703</v>
       </c>
       <c r="V33" t="n">
-        <v>2224.492534060629</v>
+        <v>1711.499749011037</v>
       </c>
       <c r="W33" t="n">
-        <v>1983.176665293939</v>
+        <v>1470.183880244347</v>
       </c>
       <c r="X33" t="n">
-        <v>1785.259677171734</v>
+        <v>1272.266892122142</v>
       </c>
       <c r="Y33" t="n">
-        <v>1592.738350821313</v>
+        <v>1079.745565771721</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>459.6854675845921</v>
+        <v>459.6854675845919</v>
       </c>
       <c r="C34" t="n">
-        <v>388.0783228821681</v>
+        <v>388.078322882168</v>
       </c>
       <c r="D34" t="n">
         <v>333.0152545458266</v>
@@ -6855,19 +6855,19 @@
         <v>95.89139582327836</v>
       </c>
       <c r="I34" t="n">
-        <v>60.71240580122637</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="J34" t="n">
         <v>123.2898612494796</v>
       </c>
       <c r="K34" t="n">
-        <v>294.6614517545642</v>
+        <v>294.6614517545643</v>
       </c>
       <c r="L34" t="n">
-        <v>544.7000810160159</v>
+        <v>544.7000810160162</v>
       </c>
       <c r="M34" t="n">
-        <v>815.0264875287517</v>
+        <v>815.0264875287519</v>
       </c>
       <c r="N34" t="n">
         <v>1084.443648994402</v>
@@ -6876,13 +6876,13 @@
         <v>1329.708374572547</v>
       </c>
       <c r="P34" t="n">
-        <v>1532.154393428443</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q34" t="n">
         <v>1620.503518891554</v>
       </c>
       <c r="R34" t="n">
-        <v>1585.460128636189</v>
+        <v>1585.460128636188</v>
       </c>
       <c r="S34" t="n">
         <v>1476.142563012102</v>
@@ -6891,19 +6891,19 @@
         <v>1342.53747634551</v>
       </c>
       <c r="U34" t="n">
-        <v>1153.376040926019</v>
+        <v>1153.376040926018</v>
       </c>
       <c r="V34" t="n">
-        <v>990.6495613203369</v>
+        <v>990.6495613203367</v>
       </c>
       <c r="W34" t="n">
-        <v>802.5019846736318</v>
+        <v>802.5019846736316</v>
       </c>
       <c r="X34" t="n">
-        <v>669.2583454049033</v>
+        <v>669.2583454049031</v>
       </c>
       <c r="Y34" t="n">
-        <v>545.2320114330761</v>
+        <v>545.232011433076</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1819.42751445337</v>
+        <v>1533.759099640684</v>
       </c>
       <c r="C35" t="n">
-        <v>1535.502580622073</v>
+        <v>1249.834165809387</v>
       </c>
       <c r="D35" t="n">
-        <v>1260.687440685192</v>
+        <v>1034.237715126256</v>
       </c>
       <c r="E35" t="n">
-        <v>963.9105456271947</v>
+        <v>737.4608200682586</v>
       </c>
       <c r="F35" t="n">
-        <v>647.7681797732607</v>
+        <v>421.3184542143247</v>
       </c>
       <c r="G35" t="n">
-        <v>330.4895906504661</v>
+        <v>104.03986509153</v>
       </c>
       <c r="H35" t="n">
-        <v>104.0398650915299</v>
+        <v>104.03986509153</v>
       </c>
       <c r="I35" t="n">
-        <v>60.71240580122636</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="J35" t="n">
-        <v>200.6373466956795</v>
+        <v>200.6373466956798</v>
       </c>
       <c r="K35" t="n">
-        <v>542.5817791744697</v>
+        <v>542.5817791744703</v>
       </c>
       <c r="L35" t="n">
         <v>1016.764091358615</v>
       </c>
       <c r="M35" t="n">
-        <v>1550.532937174475</v>
+        <v>1550.532937174476</v>
       </c>
       <c r="N35" t="n">
         <v>2071.667892559546</v>
       </c>
       <c r="O35" t="n">
-        <v>2511.517863960441</v>
+        <v>2511.517863960442</v>
       </c>
       <c r="P35" t="n">
-        <v>2854.762178401309</v>
+        <v>2854.76217840131</v>
       </c>
       <c r="Q35" t="n">
-        <v>3035.620290061318</v>
+        <v>3035.620290061319</v>
       </c>
       <c r="R35" t="n">
-        <v>3035.620290061318</v>
+        <v>3035.620290061319</v>
       </c>
       <c r="S35" t="n">
-        <v>2965.007787356601</v>
+        <v>3035.620290061319</v>
       </c>
       <c r="T35" t="n">
-        <v>2842.232212423632</v>
+        <v>2912.84471512835</v>
       </c>
       <c r="U35" t="n">
-        <v>2685.421026780492</v>
+        <v>2912.84471512835</v>
       </c>
       <c r="V35" t="n">
-        <v>2663.50796599075</v>
+        <v>2673.874265860187</v>
       </c>
       <c r="W35" t="n">
-        <v>2398.981860684246</v>
+        <v>2409.348160553684</v>
       </c>
       <c r="X35" t="n">
-        <v>2114.960545041636</v>
+        <v>2125.326844911073</v>
       </c>
       <c r="Y35" t="n">
-        <v>1819.42751445337</v>
+        <v>1829.793814322807</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.052133717628</v>
       </c>
       <c r="I36" t="n">
-        <v>60.71240580122636</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="J36" t="n">
-        <v>60.71240580122636</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="K36" t="n">
-        <v>60.71240580122636</v>
+        <v>359.349554671003</v>
       </c>
       <c r="L36" t="n">
-        <v>519.510382929572</v>
+        <v>818.1475317993486</v>
       </c>
       <c r="M36" t="n">
-        <v>1022.044017057691</v>
+        <v>1411.679645903999</v>
       </c>
       <c r="N36" t="n">
-        <v>1644.680063120033</v>
+        <v>1432.247745635977</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.762171874855</v>
+        <v>1926.329854390799</v>
       </c>
       <c r="P36" t="n">
-        <v>2522.627505011726</v>
+        <v>2310.19518752767</v>
       </c>
       <c r="Q36" t="n">
         <v>2522.627505011726</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1874.802238754354</v>
+        <v>459.6854675845919</v>
       </c>
       <c r="C37" t="n">
-        <v>1803.19509405193</v>
+        <v>388.078322882168</v>
       </c>
       <c r="D37" t="n">
-        <v>1748.132025715589</v>
+        <v>333.0152545458266</v>
       </c>
       <c r="E37" t="n">
-        <v>1694.131836312803</v>
+        <v>279.0150651430412</v>
       </c>
       <c r="F37" t="n">
-        <v>1639.660006174476</v>
+        <v>224.5432350047141</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.11536872929</v>
+        <v>153.9985975595273</v>
       </c>
       <c r="H37" t="n">
-        <v>1511.008166993041</v>
+        <v>95.89139582327836</v>
       </c>
       <c r="I37" t="n">
-        <v>1475.829176970989</v>
+        <v>60.71240580122638</v>
       </c>
       <c r="J37" t="n">
-        <v>1538.406632419242</v>
+        <v>123.2898612494796</v>
       </c>
       <c r="K37" t="n">
-        <v>1709.778222924327</v>
+        <v>294.6614517545643</v>
       </c>
       <c r="L37" t="n">
-        <v>1959.816852185779</v>
+        <v>544.7000810160162</v>
       </c>
       <c r="M37" t="n">
-        <v>2230.143258698514</v>
+        <v>815.0264875287519</v>
       </c>
       <c r="N37" t="n">
-        <v>2499.560420164164</v>
+        <v>1084.443648994402</v>
       </c>
       <c r="O37" t="n">
-        <v>2744.825145742309</v>
+        <v>1329.708374572547</v>
       </c>
       <c r="P37" t="n">
-        <v>2947.271164598207</v>
+        <v>1532.154393428444</v>
       </c>
       <c r="Q37" t="n">
-        <v>3035.620290061318</v>
+        <v>1620.503518891554</v>
       </c>
       <c r="R37" t="n">
-        <v>3000.576899805952</v>
+        <v>1585.460128636188</v>
       </c>
       <c r="S37" t="n">
-        <v>2891.259334181865</v>
+        <v>1476.142563012102</v>
       </c>
       <c r="T37" t="n">
-        <v>2757.654247515273</v>
+        <v>1342.53747634551</v>
       </c>
       <c r="U37" t="n">
-        <v>2568.492812095781</v>
+        <v>1153.376040926018</v>
       </c>
       <c r="V37" t="n">
-        <v>2405.7663324901</v>
+        <v>990.6495613203367</v>
       </c>
       <c r="W37" t="n">
-        <v>2217.618755843394</v>
+        <v>802.5019846736316</v>
       </c>
       <c r="X37" t="n">
-        <v>2084.375116574666</v>
+        <v>669.2583454049031</v>
       </c>
       <c r="Y37" t="n">
-        <v>1960.348782602839</v>
+        <v>545.232011433076</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1819.42751445337</v>
+        <v>1776.100055163066</v>
       </c>
       <c r="C38" t="n">
-        <v>1535.502580622073</v>
+        <v>1492.175121331769</v>
       </c>
       <c r="D38" t="n">
-        <v>1260.687440685192</v>
+        <v>1217.359981394889</v>
       </c>
       <c r="E38" t="n">
-        <v>963.9105456271947</v>
+        <v>920.5830863368911</v>
       </c>
       <c r="F38" t="n">
-        <v>647.7681797732607</v>
+        <v>604.4407204829572</v>
       </c>
       <c r="G38" t="n">
-        <v>330.4895906504661</v>
+        <v>287.1621313601624</v>
       </c>
       <c r="H38" t="n">
-        <v>104.0398650915299</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="I38" t="n">
-        <v>60.71240580122636</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="J38" t="n">
-        <v>200.6373466956795</v>
+        <v>200.6373466956793</v>
       </c>
       <c r="K38" t="n">
-        <v>542.5817791744703</v>
+        <v>542.5817791744701</v>
       </c>
       <c r="L38" t="n">
         <v>1016.764091358615</v>
       </c>
       <c r="M38" t="n">
-        <v>1550.532937174475</v>
+        <v>1550.532937174476</v>
       </c>
       <c r="N38" t="n">
         <v>2071.667892559546</v>
       </c>
       <c r="O38" t="n">
-        <v>2511.517863960441</v>
+        <v>2511.517863960442</v>
       </c>
       <c r="P38" t="n">
-        <v>2854.762178401309</v>
+        <v>2854.76217840131</v>
       </c>
       <c r="Q38" t="n">
         <v>3035.620290061318</v>
@@ -7201,25 +7201,25 @@
         <v>3035.620290061318</v>
       </c>
       <c r="S38" t="n">
-        <v>2965.007787356601</v>
+        <v>3035.620290061318</v>
       </c>
       <c r="T38" t="n">
-        <v>2842.232212423632</v>
+        <v>2912.84471512835</v>
       </c>
       <c r="U38" t="n">
-        <v>2685.421026780492</v>
+        <v>2756.033529485209</v>
       </c>
       <c r="V38" t="n">
-        <v>2446.450577512328</v>
+        <v>2517.063080217046</v>
       </c>
       <c r="W38" t="n">
-        <v>2181.924472205825</v>
+        <v>2252.536974910543</v>
       </c>
       <c r="X38" t="n">
-        <v>2181.924472205825</v>
+        <v>1968.515659267932</v>
       </c>
       <c r="Y38" t="n">
-        <v>1886.391441617559</v>
+        <v>1776.100055163066</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>114.052133717628</v>
       </c>
       <c r="I39" t="n">
-        <v>60.71240580122636</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="J39" t="n">
         <v>161.4230488197831</v>
       </c>
       <c r="K39" t="n">
-        <v>161.4230488197831</v>
+        <v>460.0601976895597</v>
       </c>
       <c r="L39" t="n">
-        <v>620.2210259481287</v>
+        <v>460.0601976895597</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.753140052779</v>
+        <v>1053.59231179421</v>
       </c>
       <c r="N39" t="n">
-        <v>1836.389186115121</v>
+        <v>1432.247745635977</v>
       </c>
       <c r="O39" t="n">
         <v>1926.329854390799</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>459.6854675845921</v>
+        <v>459.6854675845922</v>
       </c>
       <c r="C40" t="n">
-        <v>388.0783228821681</v>
+        <v>388.0783228821683</v>
       </c>
       <c r="D40" t="n">
-        <v>333.0152545458266</v>
+        <v>333.0152545458268</v>
       </c>
       <c r="E40" t="n">
-        <v>279.0150651430412</v>
+        <v>279.0150651430414</v>
       </c>
       <c r="F40" t="n">
-        <v>224.5432350047141</v>
+        <v>224.5432350047143</v>
       </c>
       <c r="G40" t="n">
         <v>153.9985975595273</v>
       </c>
       <c r="H40" t="n">
-        <v>95.89139582327834</v>
+        <v>95.89139582327836</v>
       </c>
       <c r="I40" t="n">
-        <v>60.71240580122636</v>
+        <v>60.71240580122637</v>
       </c>
       <c r="J40" t="n">
-        <v>123.2898612494795</v>
+        <v>123.2898612494796</v>
       </c>
       <c r="K40" t="n">
         <v>294.6614517545643</v>
@@ -7353,10 +7353,10 @@
         <v>1532.154393428444</v>
       </c>
       <c r="Q40" t="n">
-        <v>1620.503518891554</v>
+        <v>1620.503518891555</v>
       </c>
       <c r="R40" t="n">
-        <v>1585.460128636188</v>
+        <v>1585.460128636189</v>
       </c>
       <c r="S40" t="n">
         <v>1476.142563012102</v>
@@ -7368,16 +7368,16 @@
         <v>1153.376040926019</v>
       </c>
       <c r="V40" t="n">
-        <v>990.6495613203368</v>
+        <v>990.6495613203369</v>
       </c>
       <c r="W40" t="n">
         <v>802.5019846736318</v>
       </c>
       <c r="X40" t="n">
-        <v>669.2583454049033</v>
+        <v>669.2583454049034</v>
       </c>
       <c r="Y40" t="n">
-        <v>545.2320114330761</v>
+        <v>545.2320114330762</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.152079419809</v>
+        <v>2078.770466254121</v>
       </c>
       <c r="C41" t="n">
-        <v>837.2183207526164</v>
+        <v>1696.836707586929</v>
       </c>
       <c r="D41" t="n">
-        <v>464.3943559798399</v>
+        <v>1324.012742814152</v>
       </c>
       <c r="E41" t="n">
-        <v>464.3943559798399</v>
+        <v>929.2270229202591</v>
       </c>
       <c r="F41" t="n">
-        <v>50.24316529001023</v>
+        <v>515.0758322304293</v>
       </c>
       <c r="G41" t="n">
-        <v>50.24316529001023</v>
+        <v>99.78841827173892</v>
       </c>
       <c r="H41" t="n">
         <v>50.24316529001023</v>
@@ -7411,52 +7411,52 @@
         <v>50.24316529001023</v>
       </c>
       <c r="J41" t="n">
-        <v>190.1681061844633</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="K41" t="n">
-        <v>362.3640680545312</v>
+        <v>392.187597768801</v>
       </c>
       <c r="L41" t="n">
-        <v>836.5463802386763</v>
+        <v>866.369909952946</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.315226054537</v>
+        <v>1400.138755768806</v>
       </c>
       <c r="N41" t="n">
-        <v>1891.450181439607</v>
+        <v>1921.273711153877</v>
       </c>
       <c r="O41" t="n">
-        <v>2331.300152840503</v>
+        <v>2361.123682554773</v>
       </c>
       <c r="P41" t="n">
-        <v>2331.300152840503</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="Q41" t="n">
         <v>2512.158264500511</v>
       </c>
       <c r="R41" t="n">
-        <v>2512.158264500511</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="S41" t="n">
-        <v>2343.536936959898</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="T41" t="n">
-        <v>2122.752537191034</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.932526711998</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="V41" t="n">
-        <v>1530.953252607939</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="W41" t="n">
-        <v>1530.953252607939</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="X41" t="n">
-        <v>1219.152079419809</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="Y41" t="n">
-        <v>1219.152079419809</v>
+        <v>2472.814005772141</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>50.24316529001023</v>
       </c>
       <c r="J42" t="n">
-        <v>150.953808308567</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="K42" t="n">
-        <v>449.5909571783436</v>
+        <v>348.8803141597868</v>
       </c>
       <c r="L42" t="n">
-        <v>908.3889343066892</v>
+        <v>807.6782912881324</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.921048411339</v>
+        <v>1401.210405392782</v>
       </c>
       <c r="N42" t="n">
-        <v>2123.680218875216</v>
+        <v>1634.210822608817</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.680218875216</v>
+        <v>2128.292931363639</v>
       </c>
       <c r="P42" t="n">
-        <v>2507.545552012087</v>
+        <v>2512.15826450051</v>
       </c>
       <c r="Q42" t="n">
         <v>2512.15826450051</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>237.4758520276064</v>
+        <v>699.2016334546259</v>
       </c>
       <c r="C43" t="n">
-        <v>237.4758520276064</v>
+        <v>529.5856639163062</v>
       </c>
       <c r="D43" t="n">
-        <v>84.40395885536911</v>
+        <v>529.5856639163062</v>
       </c>
       <c r="E43" t="n">
-        <v>84.40395885536911</v>
+        <v>529.5856639163062</v>
       </c>
       <c r="F43" t="n">
-        <v>84.40395885536911</v>
+        <v>377.1050089420833</v>
       </c>
       <c r="G43" t="n">
-        <v>84.40395885536911</v>
+        <v>208.5515466610007</v>
       </c>
       <c r="H43" t="n">
-        <v>84.40395885536911</v>
+        <v>52.43552008885604</v>
       </c>
       <c r="I43" t="n">
-        <v>84.40395885536911</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="J43" t="n">
         <v>50.24316529001023</v>
@@ -7590,31 +7590,31 @@
         <v>882.7570021390057</v>
       </c>
       <c r="Q43" t="n">
-        <v>874.8911478807152</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="R43" t="n">
-        <v>741.8389327894532</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="S43" t="n">
-        <v>741.8389327894532</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="T43" t="n">
-        <v>510.2250212869657</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="U43" t="n">
-        <v>510.2250212869657</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="V43" t="n">
-        <v>468.7283161322306</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="W43" t="n">
-        <v>468.7283161322306</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="X43" t="n">
-        <v>237.4758520276064</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="Y43" t="n">
-        <v>237.4758520276064</v>
+        <v>882.7570021390057</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>956.3166080818718</v>
+        <v>1557.598814310202</v>
       </c>
       <c r="C44" t="n">
-        <v>574.3828494146792</v>
+        <v>1557.598814310202</v>
       </c>
       <c r="D44" t="n">
-        <v>574.3828494146792</v>
+        <v>1184.774849537426</v>
       </c>
       <c r="E44" t="n">
-        <v>464.3943559798399</v>
+        <v>789.9891296435325</v>
       </c>
       <c r="F44" t="n">
-        <v>50.24316529001023</v>
+        <v>789.9891296435325</v>
       </c>
       <c r="G44" t="n">
-        <v>50.24316529001023</v>
+        <v>374.701715684842</v>
       </c>
       <c r="H44" t="n">
         <v>50.24316529001023</v>
@@ -7648,22 +7648,22 @@
         <v>50.24316529001023</v>
       </c>
       <c r="J44" t="n">
-        <v>190.1681061844633</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="K44" t="n">
-        <v>532.1125386632541</v>
+        <v>392.187597768801</v>
       </c>
       <c r="L44" t="n">
-        <v>1006.294850847399</v>
+        <v>493.3020657978083</v>
       </c>
       <c r="M44" t="n">
-        <v>1540.06369666326</v>
+        <v>1027.070911613669</v>
       </c>
       <c r="N44" t="n">
-        <v>1891.450181439607</v>
+        <v>1548.205866998739</v>
       </c>
       <c r="O44" t="n">
-        <v>2331.300152840503</v>
+        <v>1988.055838399635</v>
       </c>
       <c r="P44" t="n">
         <v>2331.300152840503</v>
@@ -7675,25 +7675,25 @@
         <v>2472.814005772141</v>
       </c>
       <c r="S44" t="n">
-        <v>2304.192678231528</v>
+        <v>2472.814005772141</v>
       </c>
       <c r="T44" t="n">
-        <v>2304.192678231528</v>
+        <v>2252.029606003277</v>
       </c>
       <c r="U44" t="n">
-        <v>2049.372667752491</v>
+        <v>1997.20959552424</v>
       </c>
       <c r="V44" t="n">
-        <v>1712.393393648433</v>
+        <v>1660.230321420182</v>
       </c>
       <c r="W44" t="n">
-        <v>1349.858463506034</v>
+        <v>1557.598814310202</v>
       </c>
       <c r="X44" t="n">
-        <v>1349.858463506034</v>
+        <v>1557.598814310202</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.3166080818718</v>
+        <v>1557.598814310202</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.8568824792436</v>
+        <v>909.8568824792441</v>
       </c>
       <c r="C45" t="n">
-        <v>748.1532097201984</v>
+        <v>748.1532097201989</v>
       </c>
       <c r="D45" t="n">
-        <v>609.3145727104104</v>
+        <v>609.3145727104109</v>
       </c>
       <c r="E45" t="n">
-        <v>462.2865627672816</v>
+        <v>462.286562767282</v>
       </c>
       <c r="F45" t="n">
-        <v>327.592764717156</v>
+        <v>327.5927647171565</v>
       </c>
       <c r="G45" t="n">
-        <v>199.3011695921253</v>
+        <v>199.3011695921259</v>
       </c>
       <c r="H45" t="n">
         <v>103.5828932064118</v>
@@ -7733,40 +7733,40 @@
         <v>449.5909571783436</v>
       </c>
       <c r="L45" t="n">
-        <v>800.0193346608856</v>
+        <v>908.3889343066892</v>
       </c>
       <c r="M45" t="n">
-        <v>800.0193346608856</v>
+        <v>1501.921048411339</v>
       </c>
       <c r="N45" t="n">
-        <v>1421.778505124762</v>
+        <v>2018.076155745689</v>
       </c>
       <c r="O45" t="n">
-        <v>1915.860613879585</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.725947016456</v>
+        <v>2512.158264500511</v>
       </c>
       <c r="Q45" t="n">
         <v>2512.158264500511</v>
       </c>
       <c r="R45" t="n">
-        <v>2479.500421386911</v>
+        <v>2479.500421386912</v>
       </c>
       <c r="S45" t="n">
-        <v>2334.816250394763</v>
+        <v>2334.816250394764</v>
       </c>
       <c r="T45" t="n">
         <v>2147.892179712935</v>
       </c>
       <c r="U45" t="n">
-        <v>1929.426131051487</v>
+        <v>1929.426131051488</v>
       </c>
       <c r="V45" t="n">
-        <v>1701.030508499821</v>
+        <v>1701.030508499822</v>
       </c>
       <c r="W45" t="n">
-        <v>1459.714639733131</v>
+        <v>1459.714639733132</v>
       </c>
       <c r="X45" t="n">
         <v>1261.797651610926</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>206.3591918621549</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="C46" t="n">
-        <v>206.3591918621549</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="D46" t="n">
-        <v>206.3591918621549</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="E46" t="n">
-        <v>206.3591918621549</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="F46" t="n">
-        <v>206.3591918621549</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="G46" t="n">
-        <v>206.3591918621549</v>
+        <v>50.24316529001023</v>
       </c>
       <c r="H46" t="n">
         <v>50.24316529001023</v>
@@ -7830,28 +7830,28 @@
         <v>882.7570021390057</v>
       </c>
       <c r="R46" t="n">
-        <v>749.7047870477438</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="S46" t="n">
-        <v>749.7047870477438</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="T46" t="n">
-        <v>518.0908755452563</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="U46" t="n">
-        <v>518.0908755452563</v>
+        <v>882.7570021390057</v>
       </c>
       <c r="V46" t="n">
-        <v>518.0908755452563</v>
+        <v>622.0216976974284</v>
       </c>
       <c r="W46" t="n">
-        <v>231.9344740626554</v>
+        <v>335.8652962148275</v>
       </c>
       <c r="X46" t="n">
-        <v>206.3591918621549</v>
+        <v>104.6128321102033</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.3591918621549</v>
+        <v>104.6128321102033</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
@@ -7987,19 +7987,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>198.6167178772967</v>
       </c>
       <c r="N2" t="n">
         <v>198.341060852584</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P2" t="n">
         <v>199.8197557315104</v>
       </c>
       <c r="Q2" t="n">
-        <v>192.0837764031278</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8060,10 +8060,10 @@
         <v>114.9985183470206</v>
       </c>
       <c r="K3" t="n">
-        <v>123.9391158470206</v>
+        <v>123.4565725468042</v>
       </c>
       <c r="L3" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
@@ -8075,10 +8075,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>120.3146094042809</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8139,7 +8139,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>116.7662189439139</v>
+        <v>116.2836756436975</v>
       </c>
       <c r="L4" t="n">
         <v>121.53674615886</v>
@@ -8148,10 +8148,10 @@
         <v>124.820146137783</v>
       </c>
       <c r="N4" t="n">
-        <v>115.2049082581395</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P4" t="n">
         <v>111.9040032899324</v>
@@ -8218,25 +8218,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
         <v>203.5031588434685</v>
       </c>
       <c r="M5" t="n">
-        <v>198.6167178772967</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N5" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>198.8977434604743</v>
+        <v>198.415200160258</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L6" t="n">
-        <v>124.5183802515017</v>
+        <v>124.0358369512853</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.1955948250301</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8379,19 +8379,19 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L7" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>124.3376028375667</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>115.6874515583558</v>
+        <v>115.2049082581395</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L8" t="n">
-        <v>203.0206155432522</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O8" t="n">
-        <v>198.8977434604743</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,25 +8531,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4565725468042</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8613,19 +8613,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>116.7662189439139</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>121.53674615886</v>
+        <v>121.0542028586437</v>
       </c>
       <c r="M10" t="n">
         <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
-        <v>115.2049082581395</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>78.48727558788468</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>391.2642588533528</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>66.19306318756017</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8707,7 +8707,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>71.62689189477786</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8774,19 +8774,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>395.3601725624104</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>301.0104844122279</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>26.25883848760398</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8932,10 +8932,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>63.98754640634809</v>
       </c>
       <c r="M14" t="n">
-        <v>66.19306318756017</v>
+        <v>545.1650956967972</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9005,19 +9005,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>62.19042370156508</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>42.15112238930509</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>5.889194890504882</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>512.7951116524071</v>
+        <v>316.6493316359255</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9169,10 +9169,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155854</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406822</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>62.19042370156508</v>
       </c>
       <c r="K18" t="n">
-        <v>42.15112238930509</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9254,7 +9254,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>429.4995078637024</v>
+        <v>14.99564590887819</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9263,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.52237558786091</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9421,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9482,13 +9482,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>42.15112238930509</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>73.86877164283636</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>110.1173183650355</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>58.52237558786091</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9728,10 +9728,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>127.845822136655</v>
       </c>
       <c r="O24" t="n">
-        <v>16.72175054978386</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9965,16 +9965,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>14.99564590887819</v>
       </c>
       <c r="O27" t="n">
-        <v>118.4496727907503</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.52237558786091</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,25 +10190,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>62.19042370156508</v>
       </c>
       <c r="K30" t="n">
-        <v>42.15112238930509</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>584.9356663676538</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>14.99564590887819</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>26.258838487604</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10430,16 +10430,16 @@
         <v>62.19042370156508</v>
       </c>
       <c r="K33" t="n">
-        <v>42.15112238930509</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>513.4989263330494</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>14.99564590887819</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.52237558786091</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10588,7 +10588,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>421.3890363425136</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10667,16 +10667,16 @@
         <v>62.19042370156508</v>
       </c>
       <c r="K36" t="n">
-        <v>42.15112238930509</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>513.498926333049</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>14.99564590887819</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10685,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.52237558786091</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10828,7 +10828,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.959578915585</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10904,19 +10904,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>42.15112238930509</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>18.6601487648549</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>376.700023797554</v>
       </c>
       <c r="O39" t="n">
-        <v>103.7973378080879</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>78.4872755878847</v>
       </c>
       <c r="K41" t="n">
-        <v>249.9259347175416</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11077,10 +11077,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>71.62689189477787</v>
+        <v>224.1870756783525</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>93.32452658514019</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11138,7 +11138,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>62.19042370156508</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11150,16 +11150,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>622.2593537188768</v>
+        <v>229.5737443776219</v>
       </c>
       <c r="O42" t="n">
-        <v>12.94817793366499</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.18168113172285</v>
+        <v>58.52237558786091</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>78.4872755878847</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>166.1233726982746</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>397.0879001106067</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>71.62689189477787</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11381,22 +11381,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>372.6282068280287</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>5.889194890504882</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>622.2593537188767</v>
+        <v>515.588582880971</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>26.258838487604</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>58.52237558786091</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>281.0856844929839</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>293.8091261074174</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>121.5478191836387</v>
       </c>
       <c r="U11" t="n">
-        <v>155.2430737867091</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>236.5807447754813</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>261.8808442534382</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>170.6651796510964</v>
       </c>
       <c r="Y11" t="n">
-        <v>285.6861549409235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>293.0743675353021</v>
       </c>
       <c r="C14" t="n">
-        <v>281.0856844929839</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>272.0669885375119</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.03194113288251</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>253.4007947744564</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>314.1058032315667</v>
       </c>
       <c r="H14" t="n">
-        <v>224.1852283033467</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.90637767767015</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>121.5478191836387</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>113.9795172676835</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.89418469740055</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.90637767767015</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.499593100019183</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>236.5807447754813</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>261.8808442534382</v>
       </c>
       <c r="X17" t="n">
-        <v>281.1811024861848</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>226.7800796427544</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.499593100019112</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>236.5807447754813</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>261.8808442534382</v>
       </c>
       <c r="X20" t="n">
-        <v>281.1811024861848</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>282.8117306645595</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.90637767767015</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>121.5478191836387</v>
       </c>
       <c r="U23" t="n">
-        <v>155.2430737867091</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>161.2639114809206</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>246.0803378755008</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>283.7759538255925</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>224.1852283033467</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>261.8808442534382</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>226.7800796427544</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>118.3697267835201</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>121.5478191836387</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>281.1811024861848</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>226.8754976359553</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>281.0856844929839</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>193.855378897372</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>314.1058032315667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.0743675353021</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>58.62650236121237</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>224.1852283033467</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>155.243073786709</v>
       </c>
       <c r="V35" t="n">
-        <v>214.8868145936368</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>226.7800796427548</v>
+        <v>293.0743675353021</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>42.89418469740054</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>69.90637767767012</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>281.1811024861848</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>102.0862522185663</v>
       </c>
     </row>
     <row r="39">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.1345398191035</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>321.2139648908835</v>
+        <v>272.1641644389721</v>
       </c>
       <c r="I41" t="n">
         <v>139.9229212849374</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>38.95081614108712</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>166.9351142652069</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.5765557711755</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2718103742459</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>69.52667761747273</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8679276582717</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>154.5548663064232</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.8559367093683</v>
+        <v>129.6855054585109</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.81918562970529</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7.787195715707689</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>131.7216929403493</v>
       </c>
       <c r="S43" t="n">
         <v>205.2531265553827</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.2977723874627</v>
       </c>
       <c r="U43" t="n">
         <v>284.2985576528335</v>
       </c>
       <c r="V43" t="n">
-        <v>217.0462132939739</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25867,22 +25867,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>281.9492541944633</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.1345398191035</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>321.2139648908835</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>139.9229212849374</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>166.9351142652069</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5765557711755</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>257.3043888020952</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>127.8938448455449</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26040,7 +26040,7 @@
         <v>166.8679276582717</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>154.5548663064232</v>
       </c>
       <c r="I46" t="n">
         <v>131.8559367093683</v>
@@ -26070,25 +26070,25 @@
         <v>7.787195715707689</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>131.7216929403493</v>
       </c>
       <c r="S46" t="n">
         <v>205.2531265553827</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.2977723874627</v>
       </c>
       <c r="U46" t="n">
         <v>284.2985576528335</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>203.6204100850825</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>709777.4125873167</v>
+        <v>709777.4125873166</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756492.9010606633</v>
+        <v>756492.9010606635</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756492.9010606633</v>
+        <v>756492.9010606635</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756492.9010606633</v>
+        <v>756492.9010606635</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557098.2316185376</v>
+        <v>557098.2316185378</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>671671.052932409</v>
+        <v>671671.0529324089</v>
       </c>
       <c r="C2" t="n">
-        <v>671671.0529324095</v>
+        <v>671671.0529324092</v>
       </c>
       <c r="D2" t="n">
-        <v>671671.0529324092</v>
+        <v>671671.0529324091</v>
       </c>
       <c r="E2" t="n">
-        <v>600918.908593211</v>
+        <v>600918.9085932109</v>
       </c>
       <c r="F2" t="n">
-        <v>600918.9085932107</v>
+        <v>600918.9085932112</v>
       </c>
       <c r="G2" t="n">
-        <v>636291.5565971279</v>
+        <v>636291.5565971283</v>
       </c>
       <c r="H2" t="n">
-        <v>636291.5565971282</v>
+        <v>636291.5565971283</v>
       </c>
       <c r="I2" t="n">
         <v>636291.5565971282</v>
       </c>
       <c r="J2" t="n">
-        <v>636291.556597128</v>
+        <v>636291.5565971279</v>
       </c>
       <c r="K2" t="n">
         <v>636291.5565971278</v>
       </c>
       <c r="L2" t="n">
-        <v>636291.5565971279</v>
+        <v>636291.5565971283</v>
       </c>
       <c r="M2" t="n">
+        <v>636291.5565971283</v>
+      </c>
+      <c r="N2" t="n">
         <v>636291.5565971282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>636291.5565971283</v>
       </c>
       <c r="O2" t="n">
         <v>448239.7276244324</v>
       </c>
       <c r="P2" t="n">
-        <v>448239.7276244324</v>
+        <v>448239.7276244325</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423133.164475956</v>
+        <v>423133.1644759559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35868.27231895846</v>
+        <v>35868.27231895847</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80747.78961126397</v>
+        <v>80747.789611264</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>382502.5179362813</v>
       </c>
       <c r="E4" t="n">
-        <v>209163.9902468934</v>
+        <v>209163.9902468935</v>
       </c>
       <c r="F4" t="n">
         <v>209163.9902468934</v>
@@ -26447,7 +26447,7 @@
         <v>220568.7007552474</v>
       </c>
       <c r="L4" t="n">
-        <v>220568.7007552475</v>
+        <v>220568.7007552474</v>
       </c>
       <c r="M4" t="n">
         <v>220568.7007552474</v>
@@ -26481,7 +26481,7 @@
         <v>50725.70278343081</v>
       </c>
       <c r="F5" t="n">
-        <v>50725.70278343081</v>
+        <v>50725.7027834308</v>
       </c>
       <c r="G5" t="n">
         <v>58682.32557195507</v>
@@ -26499,10 +26499,10 @@
         <v>58682.32557195507</v>
       </c>
       <c r="L5" t="n">
-        <v>58682.32557195507</v>
+        <v>58682.32557195508</v>
       </c>
       <c r="M5" t="n">
-        <v>58682.32557195507</v>
+        <v>58682.32557195508</v>
       </c>
       <c r="N5" t="n">
         <v>58682.32557195507</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>250812.4477176019</v>
+        <v>250812.4477176018</v>
       </c>
       <c r="C6" t="n">
-        <v>254814.8038379626</v>
+        <v>254814.8038379624</v>
       </c>
       <c r="D6" t="n">
-        <v>254814.8038379624</v>
+        <v>254814.8038379623</v>
       </c>
       <c r="E6" t="n">
-        <v>-82103.94891306927</v>
+        <v>-84125.43875133208</v>
       </c>
       <c r="F6" t="n">
-        <v>341029.2155628865</v>
+        <v>339007.7257246242</v>
       </c>
       <c r="G6" t="n">
-        <v>321172.257950967</v>
+        <v>320161.4151985308</v>
       </c>
       <c r="H6" t="n">
-        <v>357040.5302699257</v>
+        <v>356029.6875174892</v>
       </c>
       <c r="I6" t="n">
-        <v>357040.5302699257</v>
+        <v>356029.6875174891</v>
       </c>
       <c r="J6" t="n">
-        <v>276292.7406586616</v>
+        <v>275281.8979062248</v>
       </c>
       <c r="K6" t="n">
-        <v>357040.5302699253</v>
+        <v>356029.6875174887</v>
       </c>
       <c r="L6" t="n">
-        <v>357040.5302699254</v>
+        <v>356029.6875174892</v>
       </c>
       <c r="M6" t="n">
-        <v>203506.7883178103</v>
+        <v>202495.9455653738</v>
       </c>
       <c r="N6" t="n">
-        <v>357040.5302699258</v>
+        <v>356029.6875174891</v>
       </c>
       <c r="O6" t="n">
-        <v>296327.2751967286</v>
+        <v>289943.5230450722</v>
       </c>
       <c r="P6" t="n">
-        <v>296327.2751967285</v>
+        <v>289943.5230450722</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26801,7 +26801,7 @@
         <v>628.0395661251279</v>
       </c>
       <c r="F4" t="n">
-        <v>628.0395661251279</v>
+        <v>628.0395661251277</v>
       </c>
       <c r="G4" t="n">
         <v>758.9050725153296</v>
@@ -26819,13 +26819,13 @@
         <v>758.9050725153296</v>
       </c>
       <c r="L4" t="n">
+        <v>758.9050725153297</v>
+      </c>
+      <c r="M4" t="n">
+        <v>758.9050725153297</v>
+      </c>
+      <c r="N4" t="n">
         <v>758.9050725153296</v>
-      </c>
-      <c r="M4" t="n">
-        <v>758.9050725153295</v>
-      </c>
-      <c r="N4" t="n">
-        <v>758.9050725153295</v>
       </c>
       <c r="O4" t="n">
         <v>628.0395661251279</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035397</v>
+        <v>11.94294668035406</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>616.0966194447736</v>
+        <v>616.0966194447739</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>378.8949160146003</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>399.4903313468757</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>170.5793581501676</v>
+        <v>159.1460801229381</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>210.172410125945</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27466,10 +27466,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>133.6147831633436</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>122.8275126335687</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27478,7 +27478,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
-        <v>139.3285454370332</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -27523,10 +27523,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>185.4184708049276</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.6531664065631</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27548,16 +27548,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>156.7112037097728</v>
       </c>
       <c r="H4" t="n">
         <v>145.835972088165</v>
       </c>
       <c r="I4" t="n">
-        <v>132.2416665172925</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>47.51371951961512</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.5501149783099</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>170.5793581501676</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>173.4137389355957</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27681,7 +27681,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>366.2668923933677</v>
+        <v>377.7001704205973</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27706,16 +27706,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>122.8275126335687</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>115.4982682965944</v>
       </c>
       <c r="H6" t="n">
-        <v>88.41913144271324</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -27754,10 +27754,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>214.1687196457955</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.7768683171821</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27830,16 +27830,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>273.7989896797354</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>272.7754900317192</v>
+        <v>271.351890787421</v>
       </c>
       <c r="X7" t="n">
-        <v>216.9969927832241</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27864,16 +27864,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>398.0667321025775</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>317.5501149783099</v>
       </c>
       <c r="I8" t="n">
-        <v>159.1460801229381</v>
+        <v>170.5793581501676</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27909,7 +27909,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>241.8171354870902</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27937,16 +27937,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>126.9309032036343</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>133.6147831633436</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>121.4039133892705</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>115.4982682965944</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>139.3285454370332</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27991,10 +27991,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>215.5923188900937</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
-        <v>157.4004624068808</v>
+        <v>155.9768631625826</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28025,10 +28025,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>156.7112037097728</v>
       </c>
       <c r="H10" t="n">
-        <v>145.835972088165</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28058,7 +28058,7 @@
         <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0836168914117</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.95081614108711</v>
+        <v>38.95081614108712</v>
       </c>
       <c r="S11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y11" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y14" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753686</v>
       </c>
       <c r="N22" t="n">
-        <v>97.02873658753754</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753687</v>
       </c>
       <c r="L25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y26" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y29" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753686</v>
       </c>
       <c r="M34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753684</v>
       </c>
       <c r="L37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P37" t="n">
-        <v>97.02873658753788</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>38.95081614108712</v>
       </c>
       <c r="S38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="C40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="D40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="E40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="F40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="G40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="H40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="I40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="J40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="K40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="L40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="M40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="N40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="O40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="P40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="R40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="S40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="T40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="U40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="V40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="W40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="X40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.0287365875368</v>
+        <v>97.02873658753681</v>
       </c>
     </row>
     <row r="41">
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8084068612503617</v>
+        <v>0.8084068612503614</v>
       </c>
       <c r="H11" t="n">
-        <v>8.279096767780269</v>
+        <v>8.279096767780267</v>
       </c>
       <c r="I11" t="n">
         <v>31.16610551835459</v>
       </c>
       <c r="J11" t="n">
-        <v>68.61252184004795</v>
+        <v>68.61252184004793</v>
       </c>
       <c r="K11" t="n">
         <v>102.8323842767758</v>
       </c>
       <c r="L11" t="n">
-        <v>127.5726657567666</v>
+        <v>127.5726657567665</v>
       </c>
       <c r="M11" t="n">
         <v>141.9491712755276</v>
       </c>
       <c r="N11" t="n">
-        <v>144.2460572700553</v>
+        <v>144.2460572700552</v>
       </c>
       <c r="O11" t="n">
-        <v>136.207461543497</v>
+        <v>136.2074615434969</v>
       </c>
       <c r="P11" t="n">
         <v>116.2499171563786</v>
       </c>
       <c r="Q11" t="n">
-        <v>87.29884643785005</v>
+        <v>87.29884643785003</v>
       </c>
       <c r="R11" t="n">
         <v>50.78108749801807</v>
       </c>
       <c r="S11" t="n">
-        <v>18.42157135074264</v>
+        <v>18.42157135074263</v>
       </c>
       <c r="T11" t="n">
-        <v>3.53880103512346</v>
+        <v>3.538801035123459</v>
       </c>
       <c r="U11" t="n">
         <v>0.06467254890002891</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4325358031680594</v>
+        <v>0.4325358031680593</v>
       </c>
       <c r="H12" t="n">
-        <v>4.177385256912574</v>
+        <v>4.177385256912573</v>
       </c>
       <c r="I12" t="n">
-        <v>14.89213181960205</v>
+        <v>14.89213181960204</v>
       </c>
       <c r="J12" t="n">
         <v>40.86514796510161</v>
@@ -31846,34 +31846,34 @@
         <v>69.84504677736159</v>
       </c>
       <c r="L12" t="n">
-        <v>93.9152848062929</v>
+        <v>93.91528480629289</v>
       </c>
       <c r="M12" t="n">
         <v>109.594707671135</v>
       </c>
       <c r="N12" t="n">
-        <v>112.4953534739595</v>
+        <v>112.4953534739594</v>
       </c>
       <c r="O12" t="n">
         <v>102.9112706774461</v>
       </c>
       <c r="P12" t="n">
-        <v>82.59536753653934</v>
+        <v>82.59536753653933</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.21281585703159</v>
+        <v>55.21281585703158</v>
       </c>
       <c r="R12" t="n">
-        <v>26.8551615335397</v>
+        <v>26.85516153353969</v>
       </c>
       <c r="S12" t="n">
-        <v>8.034162835161098</v>
+        <v>8.034162835161096</v>
       </c>
       <c r="T12" t="n">
-        <v>1.743422820664239</v>
+        <v>1.743422820664238</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02845630284000392</v>
+        <v>0.02845630284000391</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.362623487556771</v>
       </c>
       <c r="H13" t="n">
-        <v>3.224052462095658</v>
+        <v>3.224052462095657</v>
       </c>
       <c r="I13" t="n">
         <v>10.90507724397999</v>
@@ -31922,31 +31922,31 @@
         <v>25.63748057026371</v>
       </c>
       <c r="K13" t="n">
-        <v>42.13025609977758</v>
+        <v>42.13025609977757</v>
       </c>
       <c r="L13" t="n">
         <v>53.91222286821304</v>
       </c>
       <c r="M13" t="n">
-        <v>56.84287996310366</v>
+        <v>56.84287996310365</v>
       </c>
       <c r="N13" t="n">
-        <v>55.49128332766483</v>
+        <v>55.49128332766482</v>
       </c>
       <c r="O13" t="n">
-        <v>51.2551816775698</v>
+        <v>51.25518167756979</v>
       </c>
       <c r="P13" t="n">
         <v>43.85766253141163</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.36477221714017</v>
+        <v>30.36477221714016</v>
       </c>
       <c r="R13" t="n">
         <v>16.30487063141626</v>
       </c>
       <c r="S13" t="n">
-        <v>6.319538414966635</v>
+        <v>6.319538414966634</v>
       </c>
       <c r="T13" t="n">
         <v>1.549391265015294</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K3" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L4" t="n">
         <v>11.94294668035388</v>
@@ -34868,10 +34868,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="N4" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M5" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L6" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M7" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L8" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="M9" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="M10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>141.3383241358112</v>
       </c>
       <c r="K11" t="n">
-        <v>315.2736391560819</v>
+        <v>345.3984166452432</v>
       </c>
       <c r="L11" t="n">
         <v>478.9720325092375</v>
       </c>
       <c r="M11" t="n">
-        <v>539.1604503190508</v>
+        <v>20.98591996592873</v>
       </c>
       <c r="N11" t="n">
         <v>526.3989448334045</v>
@@ -35427,7 +35427,7 @@
         <v>444.2929004049454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>346.7114287281495</v>
       </c>
       <c r="Q11" t="n">
         <v>182.6849612727359</v>
@@ -35494,19 +35494,19 @@
         <v>301.6536857270471</v>
       </c>
       <c r="L12" t="n">
-        <v>463.432300129642</v>
+        <v>376.7000237975555</v>
       </c>
       <c r="M12" t="n">
         <v>599.527387984495</v>
       </c>
       <c r="N12" t="n">
-        <v>306.790696818479</v>
+        <v>5.78021240625111</v>
       </c>
       <c r="O12" t="n">
         <v>499.0728371260834</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>387.7427607443143</v>
       </c>
       <c r="Q12" t="n">
         <v>214.5780984687429</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K13" t="n">
         <v>173.1026166718027</v>
@@ -35585,10 +35585,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P13" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.24154087182912</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>345.3984166452432</v>
       </c>
       <c r="L14" t="n">
-        <v>478.9720325092375</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>20.98591996592873</v>
+        <v>499.9579524751657</v>
       </c>
       <c r="N14" t="n">
         <v>526.3989448334045</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>101.7279222409664</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>301.6536857270471</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>463.432300129642</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>599.527387984495</v>
       </c>
       <c r="N15" t="n">
-        <v>518.5753240586582</v>
+        <v>322.4295440421766</v>
       </c>
       <c r="O15" t="n">
         <v>499.0728371260834</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K16" t="n">
         <v>173.1026166718027</v>
@@ -35822,10 +35822,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P16" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>345.3984166452432</v>
       </c>
       <c r="L17" t="n">
-        <v>478.9720325092374</v>
+        <v>478.9720325092375</v>
       </c>
       <c r="M17" t="n">
-        <v>539.1604503190508</v>
+        <v>539.1604503190507</v>
       </c>
       <c r="N17" t="n">
         <v>526.3989448334045</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>101.7279222409664</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>301.6536857270471</v>
       </c>
       <c r="L18" t="n">
         <v>463.432300129642</v>
@@ -35974,7 +35974,7 @@
         <v>599.527387984495</v>
       </c>
       <c r="N18" t="n">
-        <v>435.2797202699535</v>
+        <v>20.7758583151293</v>
       </c>
       <c r="O18" t="n">
         <v>499.0728371260834</v>
@@ -35983,7 +35983,7 @@
         <v>387.7427607443143</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>214.5780984687429</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K19" t="n">
         <v>173.1026166718027</v>
@@ -36059,10 +36059,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P19" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>346.7114287281495</v>
       </c>
       <c r="Q20" t="n">
-        <v>182.6849612727358</v>
+        <v>182.6849612727359</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>101.7279222409664</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>301.6536857270471</v>
       </c>
       <c r="L21" t="n">
-        <v>55.20862287798147</v>
+        <v>463.432300129642</v>
       </c>
       <c r="M21" t="n">
-        <v>599.527387984495</v>
+        <v>104.2281234745306</v>
       </c>
       <c r="N21" t="n">
         <v>628.9252990528706</v>
@@ -36220,7 +36220,7 @@
         <v>387.7427607443143</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.5780984687429</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K22" t="n">
         <v>173.1026166718027</v>
@@ -36290,16 +36290,16 @@
         <v>273.0569762754907</v>
       </c>
       <c r="N22" t="n">
-        <v>272.1385469350007</v>
+        <v>272.138546935</v>
       </c>
       <c r="O22" t="n">
         <v>247.7421470486315</v>
       </c>
       <c r="P22" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>599.527387984495</v>
       </c>
       <c r="N24" t="n">
-        <v>628.9252990528706</v>
+        <v>133.6260345429061</v>
       </c>
       <c r="O24" t="n">
-        <v>3.77357261611887</v>
+        <v>499.0728371260834</v>
       </c>
       <c r="P24" t="n">
         <v>387.7427607443143</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K25" t="n">
         <v>173.1026166718027</v>
@@ -36533,10 +36533,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P25" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>599.527387984495</v>
       </c>
       <c r="N27" t="n">
-        <v>628.9252990528706</v>
+        <v>20.7758583151293</v>
       </c>
       <c r="O27" t="n">
-        <v>105.5014948570853</v>
+        <v>499.0728371260834</v>
       </c>
       <c r="P27" t="n">
         <v>387.7427607443143</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>214.5780984687429</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K28" t="n">
         <v>173.1026166718027</v>
@@ -36770,10 +36770,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P28" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>101.7279222409664</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>301.6536857270471</v>
       </c>
       <c r="L30" t="n">
         <v>463.432300129642</v>
       </c>
       <c r="M30" t="n">
-        <v>579.0464714771489</v>
+        <v>599.527387984495</v>
       </c>
       <c r="N30" t="n">
-        <v>628.9252990528706</v>
+        <v>20.7758583151293</v>
       </c>
       <c r="O30" t="n">
         <v>499.0728371260834</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>387.7427607443143</v>
       </c>
       <c r="Q30" t="n">
         <v>214.5780984687429</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K31" t="n">
         <v>173.1026166718027</v>
@@ -37007,10 +37007,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P31" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>301.6536857270471</v>
       </c>
       <c r="L33" t="n">
         <v>463.432300129642</v>
       </c>
       <c r="M33" t="n">
-        <v>507.6097314425445</v>
+        <v>599.527387984495</v>
       </c>
       <c r="N33" t="n">
-        <v>628.9252990528706</v>
+        <v>20.7758583151293</v>
       </c>
       <c r="O33" t="n">
         <v>499.0728371260834</v>
@@ -37168,7 +37168,7 @@
         <v>387.7427607443143</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>214.5780984687429</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K34" t="n">
         <v>173.1026166718027</v>
@@ -37244,10 +37244,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P34" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>141.3383241358112</v>
       </c>
       <c r="K35" t="n">
-        <v>345.3984166452427</v>
+        <v>345.3984166452432</v>
       </c>
       <c r="L35" t="n">
         <v>478.9720325092375</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>301.6536857270471</v>
       </c>
       <c r="L36" t="n">
         <v>463.432300129642</v>
       </c>
       <c r="M36" t="n">
-        <v>507.6097314425442</v>
+        <v>599.527387984495</v>
       </c>
       <c r="N36" t="n">
-        <v>628.9252990528706</v>
+        <v>20.7758583151293</v>
       </c>
       <c r="O36" t="n">
         <v>499.0728371260834</v>
@@ -37405,7 +37405,7 @@
         <v>387.7427607443143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>214.5780984687429</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K37" t="n">
         <v>173.1026166718027</v>
@@ -37481,10 +37481,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P37" t="n">
-        <v>204.4909281372705</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>345.3984166452432</v>
       </c>
       <c r="L38" t="n">
-        <v>478.9720325092369</v>
+        <v>478.9720325092375</v>
       </c>
       <c r="M38" t="n">
         <v>539.1604503190508</v>
@@ -37624,19 +37624,19 @@
         <v>101.7279222409664</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>301.6536857270471</v>
       </c>
       <c r="L39" t="n">
-        <v>463.432300129642</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>599.527387984495</v>
       </c>
       <c r="N39" t="n">
-        <v>628.9252990528706</v>
+        <v>382.4802362038051</v>
       </c>
       <c r="O39" t="n">
-        <v>90.84915987442295</v>
+        <v>499.0728371260834</v>
       </c>
       <c r="P39" t="n">
         <v>387.7427607443143</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.20955095783151</v>
+        <v>63.20955095783152</v>
       </c>
       <c r="K40" t="n">
         <v>173.1026166718027</v>
@@ -37718,10 +37718,10 @@
         <v>247.7421470486315</v>
       </c>
       <c r="P40" t="n">
-        <v>204.4909281372694</v>
+        <v>204.4909281372695</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.2415408718291</v>
+        <v>89.24154087182913</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>141.3383241358112</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>173.9353150202706</v>
+        <v>345.3984166452432</v>
       </c>
       <c r="L41" t="n">
         <v>478.9720325092375</v>
@@ -37797,10 +37797,10 @@
         <v>444.2929004049454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>152.5601837835746</v>
       </c>
       <c r="Q41" t="n">
-        <v>182.6849612727359</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>101.7279222409664</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>301.6536857270471</v>
@@ -37870,16 +37870,16 @@
         <v>599.527387984495</v>
       </c>
       <c r="N42" t="n">
-        <v>628.0395661251279</v>
+        <v>235.353956783873</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>499.0728371260834</v>
       </c>
       <c r="P42" t="n">
         <v>387.7427607443143</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.659305543861932</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>141.3383241358112</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>345.3984166452432</v>
       </c>
       <c r="L44" t="n">
-        <v>478.9720325092375</v>
+        <v>102.1358262919266</v>
       </c>
       <c r="M44" t="n">
         <v>539.1604503190508</v>
       </c>
       <c r="N44" t="n">
-        <v>354.9358432084318</v>
+        <v>526.3989448334045</v>
       </c>
       <c r="O44" t="n">
         <v>444.2929004049454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>346.7114287281495</v>
       </c>
       <c r="Q44" t="n">
         <v>182.6849612727359</v>
@@ -38101,22 +38101,22 @@
         <v>301.6536857270471</v>
       </c>
       <c r="L45" t="n">
-        <v>353.9680580631738</v>
+        <v>463.432300129642</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>599.527387984495</v>
       </c>
       <c r="N45" t="n">
-        <v>628.0395661251279</v>
+        <v>521.368795287222</v>
       </c>
       <c r="O45" t="n">
         <v>499.0728371260834</v>
       </c>
       <c r="P45" t="n">
-        <v>387.7427607443143</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.5780984687429</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
